--- a/Tabelas comparando 15jan, 11fev e 12fev.xlsx
+++ b/Tabelas comparando 15jan, 11fev e 12fev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UERJ\_Projeto Final\Python\tcc-guilherme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CCE116-C0ED-4A4E-B47D-3B5CBA29EBFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A916E894-9FA8-41B6-8872-ADD1E8ED11E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3C24E7D4-FEE7-47C9-A1FD-E4D8DEF6E0AB}"/>
   </bookViews>
@@ -23,16 +23,6 @@
     <sheet name="SUPERADO 4) Static" sheetId="9" r:id="rId8"/>
     <sheet name="SUPERADO 3) DGNSS observação" sheetId="10" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'1) SSP Com ajuste Sirgas2019'!$G$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'1) SSP Com ajuste Sirgas2019'!$G$2:$G$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'1) SSP Com ajuste Sirgas2019'!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'1) SSP Com ajuste Sirgas2019'!$G$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'1) SSP Com ajuste Sirgas2019'!$G$2:$G$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'1) SSP Com ajuste Sirgas2019'!$H$2:$H$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'1) SSP Com ajuste Sirgas2019'!$G$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'1) SSP Com ajuste Sirgas2019'!$G$2:$G$7</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -662,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -847,24 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -882,6 +854,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,6 +1031,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000001-52DA-4FB9-89D0-2D3A04C936B4}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1040,6 +1050,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000003-52DA-4FB9-89D0-2D3A04C936B4}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:cat>
                   <c:strLit>
@@ -1110,6 +1125,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000005-52DA-4FB9-89D0-2D3A04C936B4}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:cat>
                   <c:strLit>
@@ -1121,7 +1141,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>('1) SSP Com ajuste Sirgas2019'!$G$3,'1) SSP Com ajuste Sirgas2019'!$G$5,'1) SSP Com ajuste Sirgas2019'!$G$7)</c15:sqref>
@@ -1143,7 +1163,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-54CF-4DE0-9922-BC520B962F25}"/>
                   </c:ext>
@@ -1584,6 +1604,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5D57-4B1A-9452-316E127AF2EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strLit>
@@ -1646,6 +1671,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5D57-4B1A-9452-316E127AF2EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2112,9 +2142,15 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="1"/>
+              <c:ptCount val="3"/>
               <c:pt idx="0">
                 <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -2158,6 +2194,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('3) DGNSS observação'!$G$3,'3) DGNSS observação'!$G$7,'3) DGNSS observação'!$G$11)</c:f>
@@ -2198,6 +2248,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('3) DGNSS observação'!$G$4,'3) DGNSS observação'!$G$8,'3) DGNSS observação'!$G$12)</c:f>
@@ -2238,6 +2302,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('3) DGNSS observação'!$G$5,'3) DGNSS observação'!$G$9,'3) DGNSS observação'!$G$13)</c:f>
@@ -5904,7 +5982,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="93">
+      <c r="A2" s="102">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5939,7 +6017,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5976,7 +6054,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="93">
+      <c r="A4" s="102">
         <v>43507</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -6011,7 +6089,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -6048,7 +6126,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="102">
         <v>43508</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -6084,7 +6162,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -6320,7 +6398,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="93">
+      <c r="A2" s="102">
         <v>43480</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -6355,7 +6433,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
@@ -6392,7 +6470,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="93">
+      <c r="A4" s="102">
         <v>43507</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -6427,7 +6505,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
         <v>5</v>
       </c>
@@ -6464,7 +6542,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="102">
         <v>43508</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -6500,7 +6578,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="73" t="s">
         <v>5</v>
       </c>
@@ -6610,8 +6688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DACDF1-4DCE-4938-A570-7490D7962A5C}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6649,16 +6727,16 @@
       <c r="F1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="101" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="93">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="108">
         <v>43480</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -6684,7 +6762,7 @@
         <f t="shared" ref="H2:H13" si="1">E2</f>
         <v>13.985791685288399</v>
       </c>
-      <c r="I2" s="101"/>
+      <c r="I2" s="95"/>
       <c r="J2" s="26" t="s">
         <v>15</v>
       </c>
@@ -6692,9 +6770,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="97" t="s">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="110">
+        <v>43507</v>
+      </c>
+      <c r="B3" s="91" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="85">
@@ -6717,13 +6797,15 @@
         <f t="shared" ref="H3:H4" si="3">E3</f>
         <v>13.964606848052201</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="110">
+        <v>43508</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="85">
@@ -6746,12 +6828,12 @@
         <f t="shared" si="3"/>
         <v>6.7444843022293401</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="73" t="s">
         <v>51</v>
       </c>
@@ -6775,7 +6857,7 @@
         <f t="shared" si="1"/>
         <v>6.7455109879491504</v>
       </c>
-      <c r="I5" s="102"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="21">
         <f>-(G5-G2)/G2</f>
         <v>0.55027872293720237</v>
@@ -6786,7 +6868,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="90">
+      <c r="A6" s="110">
         <v>43507</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -6812,7 +6894,7 @@
         <f t="shared" si="1"/>
         <v>17.674904362939799</v>
       </c>
-      <c r="I6" s="101"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="26" t="s">
         <v>15</v>
       </c>
@@ -6821,7 +6903,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="68" t="s">
         <v>41</v>
       </c>
@@ -6845,12 +6927,12 @@
         <f t="shared" ref="H7:H8" si="5">E7</f>
         <v>17.660712793094199</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="103"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="68" t="s">
         <v>50</v>
       </c>
@@ -6874,12 +6956,12 @@
         <f t="shared" si="5"/>
         <v>6.1509378545840301</v>
       </c>
-      <c r="I8" s="102"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="103"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="73" t="s">
         <v>51</v>
       </c>
@@ -6903,7 +6985,7 @@
         <f t="shared" si="1"/>
         <v>6.0368888078580802</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="99" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="24">
@@ -6916,7 +6998,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="90">
+      <c r="A10" s="110">
         <v>43508</v>
       </c>
       <c r="B10" s="63" t="s">
@@ -6942,7 +7024,7 @@
         <f t="shared" si="1"/>
         <v>20.177192762062901</v>
       </c>
-      <c r="I10" s="101"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="26" t="s">
         <v>15</v>
       </c>
@@ -6952,7 +7034,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="68" t="s">
         <v>41</v>
       </c>
@@ -6976,13 +7058,13 @@
         <f t="shared" ref="H11:H12" si="7">E11</f>
         <v>20.405572587687299</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="103"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="68" t="s">
         <v>50</v>
       </c>
@@ -7006,13 +7088,13 @@
         <f t="shared" si="7"/>
         <v>7.9940310118094198</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="103"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="73" t="s">
         <v>51</v>
       </c>
@@ -7036,7 +7118,7 @@
         <f t="shared" si="1"/>
         <v>7.6625698270561404</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="99"/>
       <c r="J13" s="24">
         <f>-(G13-G10)/G10</f>
         <v>0.57632656258408677</v>
@@ -7130,11 +7212,6 @@
       <c r="E20" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7192,7 +7269,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="90">
+      <c r="A2" s="105">
         <v>43480</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -7227,7 +7304,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="68" t="s">
         <v>8</v>
       </c>
@@ -7264,7 +7341,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="68" t="s">
         <v>48</v>
       </c>
@@ -7301,7 +7378,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="68" t="s">
         <v>49</v>
       </c>
@@ -7330,7 +7407,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="73" t="s">
         <v>42</v>
       </c>
@@ -7359,7 +7436,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="90">
+      <c r="A7" s="105">
         <v>43507</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -7394,7 +7471,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="68" t="s">
         <v>8</v>
       </c>
@@ -7431,7 +7508,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="68" t="s">
         <v>48</v>
       </c>
@@ -7468,7 +7545,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="68" t="s">
         <v>49</v>
       </c>
@@ -7497,7 +7574,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="73" t="s">
         <v>42</v>
       </c>
@@ -7526,7 +7603,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="90">
+      <c r="A12" s="105">
         <v>43508</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -7562,7 +7639,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="68" t="s">
         <v>8</v>
       </c>
@@ -7603,7 +7680,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="68" t="s">
         <v>48</v>
       </c>
@@ -7641,7 +7718,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="68" t="s">
         <v>49</v>
       </c>
@@ -7671,7 +7748,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="73" t="s">
         <v>42</v>
       </c>
@@ -7895,7 +7972,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="90">
+      <c r="A2" s="105">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7930,7 +8007,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -7967,7 +8044,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -8004,7 +8081,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -8033,7 +8110,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -8062,7 +8139,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="90">
+      <c r="A7" s="105">
         <v>43507</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -8097,7 +8174,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8134,7 +8211,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -8171,7 +8248,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -8200,7 +8277,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -8229,7 +8306,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="90">
+      <c r="A12" s="105">
         <v>43508</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -8265,7 +8342,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -8306,7 +8383,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -8344,7 +8421,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -8374,7 +8451,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
@@ -8583,7 +8660,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="90">
+      <c r="A2" s="105">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8618,7 +8695,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -8655,7 +8732,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -8692,7 +8769,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -8721,7 +8798,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -8750,7 +8827,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="90">
+      <c r="A7" s="105">
         <v>43507</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -8785,7 +8862,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8822,7 +8899,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -8859,7 +8936,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -8888,7 +8965,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -8917,7 +8994,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="90">
+      <c r="A12" s="105">
         <v>43508</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -8953,7 +9030,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -8994,7 +9071,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -9032,7 +9109,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -9062,7 +9139,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
@@ -9238,80 +9315,80 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="90">
+      <c r="H31" s="105">
         <v>43480</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="96">
+      <c r="J31" s="90">
         <v>0.51279483593527952</v>
       </c>
-      <c r="K31" s="96">
+      <c r="K31" s="90">
         <v>-0.74622278131140984</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="91"/>
+      <c r="H32" s="106"/>
       <c r="I32" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="96">
+      <c r="J32" s="90">
         <v>0.5416465031008395</v>
       </c>
-      <c r="K32" s="96">
+      <c r="K32" s="90">
         <v>0.51776170745315497</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="90">
+      <c r="H33" s="105">
         <v>43507</v>
       </c>
       <c r="I33" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="96">
+      <c r="J33" s="90">
         <v>0.85061319155552262</v>
       </c>
-      <c r="K33" s="96">
+      <c r="K33" s="90">
         <v>-0.74848265131706859</v>
       </c>
     </row>
     <row r="34" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="91"/>
+      <c r="H34" s="106"/>
       <c r="I34" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="96">
+      <c r="J34" s="90">
         <v>0.72411477181471873</v>
       </c>
-      <c r="K34" s="96">
+      <c r="K34" s="90">
         <v>0.6519959752947162</v>
       </c>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="90">
+      <c r="H35" s="105">
         <v>43508</v>
       </c>
       <c r="I35" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="96">
+      <c r="J35" s="90">
         <v>0.32113994315580374</v>
       </c>
-      <c r="K35" s="96">
+      <c r="K35" s="90">
         <v>-0.94544864189693167</v>
       </c>
     </row>
     <row r="36" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="92"/>
+      <c r="H36" s="107"/>
       <c r="I36" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="96">
+      <c r="J36" s="90">
         <v>0.54202059684348081</v>
       </c>
-      <c r="K36" s="96">
+      <c r="K36" s="90">
         <v>0.60380856216828283</v>
       </c>
     </row>
@@ -9563,7 +9640,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="93">
+      <c r="A2" s="102">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9598,7 +9675,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
@@ -9635,7 +9712,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
@@ -9664,7 +9741,7 @@
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="93">
+      <c r="A5" s="102">
         <v>43507</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -9699,7 +9776,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -9736,7 +9813,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
@@ -9765,7 +9842,7 @@
       <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="93">
+      <c r="A8" s="102">
         <v>43508</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -9801,7 +9878,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -9842,7 +9919,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
@@ -10009,7 +10086,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="93">
+      <c r="A2" s="102">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -10044,7 +10121,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -10079,7 +10156,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="42" t="s">
         <v>19</v>
       </c>
@@ -10108,7 +10185,7 @@
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
@@ -10143,7 +10220,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="102">
         <v>43507</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -10178,7 +10255,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -10215,7 +10292,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="42" t="s">
         <v>19</v>
       </c>
@@ -10244,7 +10321,7 @@
       <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
@@ -10281,7 +10358,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="102">
         <v>43508</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -10317,7 +10394,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -10356,7 +10433,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="42" t="s">
         <v>19</v>
       </c>
@@ -10386,7 +10463,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>

--- a/Tabelas comparando 15jan, 11fev e 12fev.xlsx
+++ b/Tabelas comparando 15jan, 11fev e 12fev.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UERJ\_Projeto Final\Python\tcc-guilherme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A916E894-9FA8-41B6-8872-ADD1E8ED11E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E9F67C-88CE-4BC4-A826-5D39CE03578D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3C24E7D4-FEE7-47C9-A1FD-E4D8DEF6E0AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C24E7D4-FEE7-47C9-A1FD-E4D8DEF6E0AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="1) SSP Com ajuste Sirgas2019" sheetId="5" r:id="rId1"/>
+    <sheet name="TODAS AS TABELAS" sheetId="15" r:id="rId1"/>
     <sheet name="2) DGNSS posição" sheetId="3" r:id="rId2"/>
-    <sheet name="3) DGNSS observação" sheetId="4" r:id="rId3"/>
-    <sheet name="4) SSP Filtrado" sheetId="11" r:id="rId4"/>
-    <sheet name="OLD SSP Sem ajuste Sirgas2019" sheetId="1" r:id="rId5"/>
-    <sheet name="SUPERADO 4) SSP Filtrado" sheetId="12" r:id="rId6"/>
-    <sheet name="Planilha1" sheetId="13" r:id="rId7"/>
-    <sheet name="SUPERADO 4) Static" sheetId="9" r:id="rId8"/>
-    <sheet name="SUPERADO 3) DGNSS observação" sheetId="10" r:id="rId9"/>
+    <sheet name="1) SSP Com ajuste Sirgas2019" sheetId="5" r:id="rId3"/>
+    <sheet name="3) DGNSS observação" sheetId="4" r:id="rId4"/>
+    <sheet name="4) SSP Filtrado" sheetId="11" r:id="rId5"/>
+    <sheet name="OLD SSP Sem ajuste Sirgas2019" sheetId="1" r:id="rId6"/>
+    <sheet name="SUPERADO 4) SSP Filtrado" sheetId="12" r:id="rId7"/>
+    <sheet name="Planilha1" sheetId="13" r:id="rId8"/>
+    <sheet name="SUPERADO 4) Static" sheetId="9" r:id="rId9"/>
+    <sheet name="SUPERADO 3) DGNSS observação" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="69">
   <si>
     <t>Dia</t>
   </si>
@@ -195,6 +196,57 @@
   <si>
     <t>DGNSS Filtro Delta W 0,05</t>
   </si>
+  <si>
+    <t>Estação RIOD</t>
+  </si>
+  <si>
+    <t>EMQ</t>
+  </si>
+  <si>
+    <t>H (m)</t>
+  </si>
+  <si>
+    <t>N (m)</t>
+  </si>
+  <si>
+    <t>E (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planimétrico </t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
+  </si>
+  <si>
+    <t>Coluna4</t>
+  </si>
+  <si>
+    <t>Coluna5</t>
+  </si>
+  <si>
+    <t>Coluna6</t>
+  </si>
+  <si>
+    <t>Coluna7</t>
+  </si>
+  <si>
+    <t>5389 (1006)</t>
+  </si>
+  <si>
+    <t>3624 (629)</t>
+  </si>
+  <si>
+    <t>5936 (3444)</t>
+  </si>
+  <si>
+    <t>PPS</t>
+  </si>
 </sst>
 </file>
 
@@ -224,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -647,12 +699,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -837,6 +1044,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,12 +1104,284 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -907,6 +1395,2158 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EMQ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Planimétrico</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estação RIOD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$G$4,'TODAS AS TABELAS'!$G$12,'TODAS AS TABELAS'!$G$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2336793040163037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8384201603462923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2204192427010425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3349-438D-A666-97FDEAD3F6CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NMEA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$G$5,'TODAS AS TABELAS'!$G$13,'TODAS AS TABELAS'!$G$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2349334328844552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.339545396910868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1818188594751344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3349-438D-A666-97FDEAD3F6CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$G$6,'TODAS AS TABELAS'!$G$14,'TODAS AS TABELAS'!$G$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.7532922108657978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.013492067126842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.127859850793255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3349-438D-A666-97FDEAD3F6CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DGNSS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$G$7,'TODAS AS TABELAS'!$G$15,'TODAS AS TABELAS'!$G$23)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.6622683520514752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.117128586808601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.241741214281477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3349-438D-A666-97FDEAD3F6CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>PPS filtro Delta W 0,05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$G$8,'TODAS AS TABELAS'!$G$16,'TODAS AS TABELAS'!$G$24)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0121020942305226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0384597720560738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5543100160322068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3349-438D-A666-97FDEAD3F6CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>DGNSS Filtro Delta W 0,05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$G$9,'TODAS AS TABELAS'!$G$17,'TODAS AS TABELAS'!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9365417515744054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9615855902526702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1382520714840227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3349-438D-A666-97FDEAD3F6CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>PPS filtro Delta W 0,20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$G$10,'TODAS AS TABELAS'!$G$18,'TODAS AS TABELAS'!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0795855363118241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2854845129454606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.509506071210887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3349-438D-A666-97FDEAD3F6CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>PPS filtro Delta W 0,05 ~D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$G$11,'TODAS AS TABELAS'!$G$19,'TODAS AS TABELAS'!$G$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5872670964760367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8394377096894599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5348686533079237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3349-438D-A666-97FDEAD3F6CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="964640488"/>
+        <c:axId val="964640816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="964640488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964640816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964640816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Erro (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964640488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EMQ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Altimétrico</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estação RIOD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$F$4,'TODAS AS TABELAS'!$F$12,'TODAS AS TABELAS'!$F$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1737907920159598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.08179787773734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6980847035180502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C27-45C3-916D-F3C122B18A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NMEA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$F$5,'TODAS AS TABELAS'!$F$13,'TODAS AS TABELAS'!$F$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9944410828025601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0461850746268699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.64350275922162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C27-45C3-916D-F3C122B18A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$F$6,'TODAS AS TABELAS'!$F$14,'TODAS AS TABELAS'!$F$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.985791685288399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.674904362939799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.177192762062901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C27-45C3-916D-F3C122B18A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DGNSS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$F$7,'TODAS AS TABELAS'!$F$15,'TODAS AS TABELAS'!$F$23)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.964606848052201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.660712793094199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.405572587687299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6C27-45C3-916D-F3C122B18A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>PPS filtro Delta W 0,05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$F$8,'TODAS AS TABELAS'!$F$16,'TODAS AS TABELAS'!$F$24)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.7444843022293401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1509378545840301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9940310118094198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6C27-45C3-916D-F3C122B18A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>DGNSS Filtro Delta W 0,05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$F$9,'TODAS AS TABELAS'!$F$17,'TODAS AS TABELAS'!$F$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.7455109879491504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0368888078580802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6625698270561404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6C27-45C3-916D-F3C122B18A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>PPS filtro Delta W 0,20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$F$10,'TODAS AS TABELAS'!$F$18,'TODAS AS TABELAS'!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8433019524305001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3735739461565499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1132574796105796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6C27-45C3-916D-F3C122B18A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>PPS filtro Delta W 0,05 ~D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11/02/2019</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12/02/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('TODAS AS TABELAS'!$F$11,'TODAS AS TABELAS'!$F$19,'TODAS AS TABELAS'!$F$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.0305464826320803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.17092643768191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.3025866410925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6C27-45C3-916D-F3C122B18A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="964640488"/>
+        <c:axId val="964640816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="964640488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964640816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964640816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Erro (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964640488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EMQ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Planimétrico</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estação RIOD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-6867-4430-A4FC-E381E9BE54EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5D57-4B1A-9452-316E127AF2EB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('2) DGNSS posição'!$G$2,'2) DGNSS posição'!$G$4,'2) DGNSS posição'!$G$6)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2336793040163037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8384201603462923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2204192427010425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6867-4430-A4FC-E381E9BE54EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NMEA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5D57-4B1A-9452-316E127AF2EB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6867-4430-A4FC-E381E9BE54EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>15/01/2019</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('2) DGNSS posição'!$G$3,'2) DGNSS posição'!$G$5,'2) DGNSS posição'!$G$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2349334328844552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.339545396910868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1818188594751344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6867-4430-A4FC-E381E9BE54EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="964640488"/>
+        <c:axId val="964640816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="964640488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>DD/MM/AAAA</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964640816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964640816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Erro (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964640488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1475,575 +4115,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>EMQ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Planimétrico</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Estação RIOD</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-6867-4430-A4FC-E381E9BE54EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5D57-4B1A-9452-316E127AF2EB}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>15/01/2019</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('2) DGNSS posição'!$G$2,'2) DGNSS posição'!$G$4,'2) DGNSS posição'!$G$6)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.2336793040163037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8384201603462923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2204192427010425</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6867-4430-A4FC-E381E9BE54EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>NMEA</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-5D57-4B1A-9452-316E127AF2EB}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6867-4430-A4FC-E381E9BE54EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>15/01/2019</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('2) DGNSS posição'!$G$3,'2) DGNSS posição'!$G$5,'2) DGNSS posição'!$G$7)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.2349334328844552</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.339545396910868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1818188594751344</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6867-4430-A4FC-E381E9BE54EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="964640488"/>
-        <c:axId val="964640816"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="964640488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>DD/MM/AAAA</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="964640816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="964640816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Erro (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="964640488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2.5"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2655,7 +4727,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3451,6 +5523,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5463,27 +7615,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257173</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187B19A9-DEA8-4F31-8453-84044913F2C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9116828F-915A-4D58-BA6A-37317C371B5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5498,6 +8656,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45098A7A-DF73-4AE3-87DD-CF819E41B492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5553,6 +8749,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187B19A9-DEA8-4F31-8453-84044913F2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -5592,7 +8831,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5633,6 +8872,24 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45E3E6D1-BE49-4F79-8BCB-4146576E0923}" name="Tabela2" displayName="Tabela2" ref="A1:G27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:G27" xr:uid="{06541A02-666E-457C-9A0F-A8C7FB7FBEEF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2A0D1EE6-7D8C-4085-8E18-8D1A25D59A9B}" name="Coluna1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FE63AAA7-73DF-4F17-9BCA-115450663FD4}" name="Coluna2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8EDB3180-E380-47C4-82E1-04A62B17A9D4}" name="Coluna3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{60357D93-1C51-4B78-B98D-A8F4BC957C7C}" name="Coluna4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4AEEB2DD-F209-4975-A126-EB28BE9A40AA}" name="Coluna5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D1E91222-C504-43A6-8CD1-28C8F2C14BE5}" name="Coluna6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7AB189D5-CF18-46A8-89DE-FE79D3A45A33}" name="Coluna7" dataDxfId="2">
+      <calculatedColumnFormula>SQRT(D2^2+E2^2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5931,11 +9188,1885 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E76E2E-C223-469C-8F66-73CFA993B7B9}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="134"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="120"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="90">
+        <v>43480</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="63">
+        <v>243</v>
+      </c>
+      <c r="D4" s="64">
+        <v>1.11512985316833</v>
+      </c>
+      <c r="E4" s="138">
+        <v>0.52768365118784</v>
+      </c>
+      <c r="F4" s="146">
+        <v>3.1737907920159598</v>
+      </c>
+      <c r="G4" s="140">
+        <f t="shared" ref="G4" si="0">SQRT(D4^2+E4^2)</f>
+        <v>1.2336793040163037</v>
+      </c>
+      <c r="H4" s="133">
+        <f>F5</f>
+        <v>3.9944410828025601</v>
+      </c>
+      <c r="I4" s="98"/>
+      <c r="J4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="69">
+        <v>5.7219633247950501</v>
+      </c>
+      <c r="E5" s="125">
+        <v>5.92226851415389</v>
+      </c>
+      <c r="F5" s="147">
+        <v>3.9944410828025601</v>
+      </c>
+      <c r="G5" s="141">
+        <f>SQRT(D5^2+E5^2)</f>
+        <v>8.2349334328844552</v>
+      </c>
+      <c r="H5" s="133">
+        <f>F6</f>
+        <v>13.985791685288399</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="21">
+        <f>(G5-G8)/G5</f>
+        <v>0.51279483593527952</v>
+      </c>
+      <c r="K5" s="28">
+        <f>(H4-H7)/H4</f>
+        <v>-0.68846758843600431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+      <c r="B6" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="68">
+        <v>1378</v>
+      </c>
+      <c r="D6" s="69">
+        <v>6.9513665976951602</v>
+      </c>
+      <c r="E6" s="125">
+        <v>5.3196453785240099</v>
+      </c>
+      <c r="F6" s="147">
+        <v>13.985791685288399</v>
+      </c>
+      <c r="G6" s="141">
+        <f>SQRT(D6^2+E6^2)</f>
+        <v>8.7532922108657978</v>
+      </c>
+      <c r="H6" s="133"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="91"/>
+      <c r="B7" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="68">
+        <v>1378</v>
+      </c>
+      <c r="D7" s="69">
+        <v>6.8501660571636203</v>
+      </c>
+      <c r="E7" s="125">
+        <v>5.3018975840953404</v>
+      </c>
+      <c r="F7" s="147">
+        <v>13.964606848052201</v>
+      </c>
+      <c r="G7" s="141">
+        <f>SQRT(D7^2+E7^2)</f>
+        <v>8.6622683520514752</v>
+      </c>
+      <c r="H7" s="133">
+        <f>F8</f>
+        <v>6.7444843022293401</v>
+      </c>
+      <c r="I7" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="46">
+        <f>(G6-G8)/G6</f>
+        <v>0.5416465031008395</v>
+      </c>
+      <c r="K7" s="47">
+        <f>(H5-H7)/H5</f>
+        <v>0.51776170745315497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+      <c r="B8" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="68">
+        <v>3502</v>
+      </c>
+      <c r="D8" s="69">
+        <v>3.2555476511442198</v>
+      </c>
+      <c r="E8" s="125">
+        <v>2.3448609139260901</v>
+      </c>
+      <c r="F8" s="147">
+        <v>6.7444843022293401</v>
+      </c>
+      <c r="G8" s="141">
+        <f>SQRT(D8^2+E8^2)</f>
+        <v>4.0121020942305226</v>
+      </c>
+      <c r="H8" s="133"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
+      <c r="B9" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="68">
+        <v>3502</v>
+      </c>
+      <c r="D9" s="69">
+        <v>3.1691414151519499</v>
+      </c>
+      <c r="E9" s="125">
+        <v>2.3351453172462699</v>
+      </c>
+      <c r="F9" s="147">
+        <v>6.7455109879491504</v>
+      </c>
+      <c r="G9" s="141">
+        <v>3.9365417515744054</v>
+      </c>
+      <c r="H9" s="133">
+        <f>F10</f>
+        <v>6.8433019524305001</v>
+      </c>
+      <c r="I9" s="118"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91"/>
+      <c r="B10" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="68">
+        <v>3495</v>
+      </c>
+      <c r="D10" s="69">
+        <v>3.3742243910984899</v>
+      </c>
+      <c r="E10" s="125">
+        <v>2.2929517889830699</v>
+      </c>
+      <c r="F10" s="147">
+        <v>6.8433019524305001</v>
+      </c>
+      <c r="G10" s="141">
+        <f>SQRT(D10^2+E10^2)</f>
+        <v>4.0795855363118241</v>
+      </c>
+      <c r="H10" s="133">
+        <f>F11</f>
+        <v>5.0305464826320803</v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="92"/>
+      <c r="B11" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="73">
+        <v>3500</v>
+      </c>
+      <c r="D11" s="74">
+        <v>2.9915918899835701</v>
+      </c>
+      <c r="E11" s="139">
+        <v>3.4775562365253299</v>
+      </c>
+      <c r="F11" s="148">
+        <v>5.0305464826320803</v>
+      </c>
+      <c r="G11" s="142">
+        <f>SQRT(D11^2+E11^2)</f>
+        <v>4.5872670964760367</v>
+      </c>
+      <c r="H11" s="133"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="136">
+        <v>43507</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="94">
+        <v>361</v>
+      </c>
+      <c r="D12" s="85">
+        <v>0.54646894272239799</v>
+      </c>
+      <c r="E12" s="137">
+        <v>0.63586166727910798</v>
+      </c>
+      <c r="F12" s="146">
+        <v>3.08179787773734</v>
+      </c>
+      <c r="G12" s="143">
+        <f>SQRT(D12^2+E12^2)</f>
+        <v>0.8384201603462923</v>
+      </c>
+      <c r="H12" s="69">
+        <f>F13</f>
+        <v>2.0461850746268699</v>
+      </c>
+      <c r="I12" s="98"/>
+      <c r="J12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="123"/>
+      <c r="B13" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="69">
+        <v>20.012158307143899</v>
+      </c>
+      <c r="E13" s="125">
+        <v>3.6346426017986402</v>
+      </c>
+      <c r="F13" s="147">
+        <v>2.0461850746268699</v>
+      </c>
+      <c r="G13" s="144">
+        <f>SQRT(D13^2+E13^2)</f>
+        <v>20.339545396910868</v>
+      </c>
+      <c r="H13" s="69">
+        <f>F14</f>
+        <v>17.674904362939799</v>
+      </c>
+      <c r="I13" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="21">
+        <f>(G13-G16)/G13</f>
+        <v>0.85061319155552262</v>
+      </c>
+      <c r="K13" s="28">
+        <f>(H12-H15)/H12</f>
+        <v>-2.0060515692627061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="123"/>
+      <c r="B14" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="68">
+        <v>1575</v>
+      </c>
+      <c r="D14" s="69">
+        <v>8.0226695059320896</v>
+      </c>
+      <c r="E14" s="125">
+        <v>7.54544773431327</v>
+      </c>
+      <c r="F14" s="147">
+        <v>17.674904362939799</v>
+      </c>
+      <c r="G14" s="144">
+        <f>SQRT(D14^2+E14^2)</f>
+        <v>11.013492067126842</v>
+      </c>
+      <c r="H14" s="69"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="123"/>
+      <c r="B15" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="68">
+        <v>1575</v>
+      </c>
+      <c r="D15" s="69">
+        <v>8.1315119893046095</v>
+      </c>
+      <c r="E15" s="125">
+        <v>7.5808350980239902</v>
+      </c>
+      <c r="F15" s="147">
+        <v>17.660712793094199</v>
+      </c>
+      <c r="G15" s="144">
+        <f>SQRT(D15^2+E15^2)</f>
+        <v>11.117128586808601</v>
+      </c>
+      <c r="H15" s="69">
+        <f>F16</f>
+        <v>6.1509378545840301</v>
+      </c>
+      <c r="I15" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="46">
+        <f>(G14-G16)/G14</f>
+        <v>0.72411477181471873</v>
+      </c>
+      <c r="K15" s="47">
+        <f>(H13-H15)/H13</f>
+        <v>0.6519959752947162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="123"/>
+      <c r="B16" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="68">
+        <v>3372</v>
+      </c>
+      <c r="D16" s="69">
+        <v>2.1846528360502999</v>
+      </c>
+      <c r="E16" s="125">
+        <v>2.1117598756346401</v>
+      </c>
+      <c r="F16" s="147">
+        <v>6.1509378545840301</v>
+      </c>
+      <c r="G16" s="144">
+        <f>SQRT(D16^2+E16^2)</f>
+        <v>3.0384597720560738</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="123"/>
+      <c r="B17" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="68">
+        <v>3372</v>
+      </c>
+      <c r="D17" s="69">
+        <v>2.1381807040121101</v>
+      </c>
+      <c r="E17" s="125">
+        <v>2.0491882503524499</v>
+      </c>
+      <c r="F17" s="147">
+        <v>6.0368888078580802</v>
+      </c>
+      <c r="G17" s="144">
+        <v>2.9615855902526702</v>
+      </c>
+      <c r="H17" s="69">
+        <f>F18</f>
+        <v>6.3735739461565499</v>
+      </c>
+      <c r="I17" s="118"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="123"/>
+      <c r="B18" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="68">
+        <v>3359</v>
+      </c>
+      <c r="D18" s="69">
+        <v>2.42536899469795</v>
+      </c>
+      <c r="E18" s="125">
+        <v>2.2163018125612601</v>
+      </c>
+      <c r="F18" s="147">
+        <v>6.3735739461565499</v>
+      </c>
+      <c r="G18" s="144">
+        <f>SQRT(D18^2+E18^2)</f>
+        <v>3.2854845129454606</v>
+      </c>
+      <c r="H18" s="69">
+        <f>F19</f>
+        <v>9.17092643768191</v>
+      </c>
+      <c r="I18" s="102"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="129"/>
+      <c r="B19" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="130">
+        <v>3356</v>
+      </c>
+      <c r="D19" s="131">
+        <v>3.0541243235993201</v>
+      </c>
+      <c r="E19" s="132">
+        <v>2.3267158276386999</v>
+      </c>
+      <c r="F19" s="148">
+        <v>9.17092643768191</v>
+      </c>
+      <c r="G19" s="145">
+        <f>SQRT(D19^2+E19^2)</f>
+        <v>3.8394377096894599</v>
+      </c>
+      <c r="H19" s="69"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="117"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="90">
+        <v>43508</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="63">
+        <v>401</v>
+      </c>
+      <c r="D20" s="64">
+        <v>1.0181735125209499</v>
+      </c>
+      <c r="E20" s="138">
+        <v>0.67286389883522302</v>
+      </c>
+      <c r="F20" s="146">
+        <v>3.6980847035180502</v>
+      </c>
+      <c r="G20" s="140">
+        <f>SQRT(D20^2+E20^2)</f>
+        <v>1.2204192427010425</v>
+      </c>
+      <c r="H20" s="133">
+        <f>F21</f>
+        <v>3.64350275922162</v>
+      </c>
+      <c r="I20" s="98"/>
+      <c r="J20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="91"/>
+      <c r="B21" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="69">
+        <v>5.2575891833484203</v>
+      </c>
+      <c r="E21" s="125">
+        <v>6.2689644941091096</v>
+      </c>
+      <c r="F21" s="147">
+        <v>3.64350275922162</v>
+      </c>
+      <c r="G21" s="141">
+        <f>SQRT(D21^2+E21^2)</f>
+        <v>8.1818188594751344</v>
+      </c>
+      <c r="H21" s="133">
+        <f>F22</f>
+        <v>20.177192762062901</v>
+      </c>
+      <c r="I21" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="21">
+        <f>(G21-G24)/G21</f>
+        <v>0.32113994315580374</v>
+      </c>
+      <c r="K21" s="28">
+        <f>(H20-H23)/H20</f>
+        <v>-1.1940510382698943</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="91"/>
+      <c r="B22" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="68">
+        <v>2053</v>
+      </c>
+      <c r="D22" s="69">
+        <v>8.2955347477795804</v>
+      </c>
+      <c r="E22" s="125">
+        <v>8.8469818474361404</v>
+      </c>
+      <c r="F22" s="147">
+        <v>20.177192762062901</v>
+      </c>
+      <c r="G22" s="141">
+        <f>SQRT(D22^2+E22^2)</f>
+        <v>12.127859850793255</v>
+      </c>
+      <c r="H22" s="133"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="91"/>
+      <c r="B23" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="68">
+        <v>2053</v>
+      </c>
+      <c r="D23" s="69">
+        <v>8.4320914976564403</v>
+      </c>
+      <c r="E23" s="125">
+        <v>8.87468652587728</v>
+      </c>
+      <c r="F23" s="147">
+        <v>20.405572587687299</v>
+      </c>
+      <c r="G23" s="141">
+        <f>SQRT(D23^2+E23^2)</f>
+        <v>12.241741214281477</v>
+      </c>
+      <c r="H23" s="133">
+        <f>F24</f>
+        <v>7.9940310118094198</v>
+      </c>
+      <c r="I23" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="46">
+        <f>(G22-G24)/G22</f>
+        <v>0.54202059684348081</v>
+      </c>
+      <c r="K23" s="47">
+        <f>(H21-H23)/H21</f>
+        <v>0.60380856216828283</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="91"/>
+      <c r="B24" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="68">
+        <v>2474</v>
+      </c>
+      <c r="D24" s="69">
+        <v>3.9141984344274401</v>
+      </c>
+      <c r="E24" s="125">
+        <v>3.94073728763051</v>
+      </c>
+      <c r="F24" s="147">
+        <v>7.9940310118094198</v>
+      </c>
+      <c r="G24" s="141">
+        <f>SQRT(D24^2+E24^2)</f>
+        <v>5.5543100160322068</v>
+      </c>
+      <c r="H24" s="133"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="91"/>
+      <c r="B25" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="68">
+        <v>2474</v>
+      </c>
+      <c r="D25" s="69">
+        <v>3.4736619854876398</v>
+      </c>
+      <c r="E25" s="125">
+        <v>3.7861995141154301</v>
+      </c>
+      <c r="F25" s="147">
+        <v>7.6625698270561404</v>
+      </c>
+      <c r="G25" s="141">
+        <f t="shared" ref="G25" si="1">SQRT(D25^2+E25^2)</f>
+        <v>5.1382520714840227</v>
+      </c>
+      <c r="H25" s="133">
+        <f>F26</f>
+        <v>8.1132574796105796</v>
+      </c>
+      <c r="I25" s="118"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="91"/>
+      <c r="B26" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="68">
+        <v>2398</v>
+      </c>
+      <c r="D26" s="69">
+        <v>3.7813396910379402</v>
+      </c>
+      <c r="E26" s="125">
+        <v>4.0070097691034796</v>
+      </c>
+      <c r="F26" s="147">
+        <v>8.1132574796105796</v>
+      </c>
+      <c r="G26" s="141">
+        <f>SQRT(D26^2+E26^2)</f>
+        <v>5.509506071210887</v>
+      </c>
+      <c r="H26" s="133">
+        <f>F27</f>
+        <v>13.3025866410925</v>
+      </c>
+      <c r="I26" s="102"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="92"/>
+      <c r="B27" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="73">
+        <v>2454</v>
+      </c>
+      <c r="D27" s="74">
+        <v>3.3926924928281199</v>
+      </c>
+      <c r="E27" s="139">
+        <v>4.3731463111218201</v>
+      </c>
+      <c r="F27" s="148">
+        <v>13.3025866410925</v>
+      </c>
+      <c r="G27" s="142">
+        <f>SQRT(D27^2+E27^2)</f>
+        <v>5.5348686533079237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="29">
+        <f>AVERAGE(G21,G13,G5)</f>
+        <v>12.252099229756817</v>
+      </c>
+      <c r="C30" s="29">
+        <f>AVERAGE(H20,H12,H4)</f>
+        <v>3.2280429722170165</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="29">
+        <f>AVERAGE(G22,G14,G6)</f>
+        <v>10.631548042928632</v>
+      </c>
+      <c r="C31" s="29">
+        <f>AVERAGE(H21,H13,H5)</f>
+        <v>17.279296270097031</v>
+      </c>
+      <c r="D31" s="31">
+        <f>-(B31-$B$30)/$B$30</f>
+        <v>0.1322672267371402</v>
+      </c>
+      <c r="E31" s="37">
+        <f>-(C31-$C$30)/C31</f>
+        <v>-0.8131843495383918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="29">
+        <f>AVERAGE(G24,G16,G8)</f>
+        <v>4.2016239607729338</v>
+      </c>
+      <c r="C32" s="29">
+        <f>AVERAGE(H23,H15,H7)</f>
+        <v>6.9631510562075967</v>
+      </c>
+      <c r="D32" s="31">
+        <f t="shared" ref="D32:D34" si="2">-(B32-$B$30)/$B$30</f>
+        <v>0.65706905551593975</v>
+      </c>
+      <c r="E32" s="37">
+        <f t="shared" ref="E32:E34" si="3">-(C32-$C$30)/C32</f>
+        <v>-0.53641060689912212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="29">
+        <f>AVERAGE(G26,G18,G10)</f>
+        <v>4.2915253734893914</v>
+      </c>
+      <c r="C33" s="29">
+        <f>AVERAGE(H25,H17,H9)</f>
+        <v>7.1100444593992096</v>
+      </c>
+      <c r="D33" s="31">
+        <f>-(B33-$B$30)/$B$30</f>
+        <v>0.64973142210058887</v>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" si="3"/>
+        <v>-0.5459883562402108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="39">
+        <f>AVERAGE(G27,G19,G11)</f>
+        <v>4.6538578198244736</v>
+      </c>
+      <c r="C34" s="39">
+        <f>AVERAGE(H26,H18,H10)</f>
+        <v>9.1680198538021624</v>
+      </c>
+      <c r="D34" s="40">
+        <f t="shared" si="2"/>
+        <v>0.62015833102938034</v>
+      </c>
+      <c r="E34" s="41">
+        <f t="shared" si="3"/>
+        <v>-0.64790183445356719</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="76">
+        <v>3.9365417515744054</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="76">
+        <v>2.9615855902526702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="76">
+        <v>5.1382520714840227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574635A4-E44F-4E4A-8A84-F45E491401B1}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="105">
+        <v>43480</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10">
+        <v>6.9513665976951602</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5.3196453785240099</v>
+      </c>
+      <c r="E2" s="10">
+        <v>13.985791685288399</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1378</v>
+      </c>
+      <c r="G2" s="51">
+        <f t="shared" ref="G2:G13" si="0">SQRT(C2^2+D2^2)</f>
+        <v>8.7532922108657978</v>
+      </c>
+      <c r="H2" s="52">
+        <f t="shared" ref="H2:H13" si="1">E2</f>
+        <v>13.985791685288399</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.9513665976951602</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.3196453785240099</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13.985791685288399</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1378</v>
+      </c>
+      <c r="G3" s="18">
+        <f t="shared" si="0"/>
+        <v>8.7532922108657978</v>
+      </c>
+      <c r="H3" s="19">
+        <f t="shared" si="1"/>
+        <v>13.985791685288399</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="21">
+        <f>-(G3-G2)/G2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="28">
+        <f>-(H3-H2)/H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="43">
+        <v>3.2555476511442198</v>
+      </c>
+      <c r="D4" s="43">
+        <v>2.3448609139260901</v>
+      </c>
+      <c r="E4" s="43">
+        <v>6.7444843022293401</v>
+      </c>
+      <c r="F4" s="44">
+        <v>3502</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
+        <v>4.0121020942305226</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" si="1"/>
+        <v>6.7444843022293401</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="106"/>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.2555476511442198</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.3448609139260901</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6.7444843022293401</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3502</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
+        <v>4.0121020942305226</v>
+      </c>
+      <c r="H5" s="53">
+        <f t="shared" si="1"/>
+        <v>6.7444843022293401</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24">
+        <f>-(G5-G4)/G4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <f>-(H5-H4)/H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="105">
+        <v>43507</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8.0226695059320896</v>
+      </c>
+      <c r="D6" s="10">
+        <v>7.54544773431327</v>
+      </c>
+      <c r="E6" s="10">
+        <v>17.674904362939799</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1575</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" si="0"/>
+        <v>11.013492067126842</v>
+      </c>
+      <c r="H6" s="52">
+        <f t="shared" si="1"/>
+        <v>17.674904362939799</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.3967308672571601</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.03461717875116</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.7254764251700401</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1575</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>9.4535170015307273</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="1"/>
+        <v>4.7254764251700401</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="21">
+        <f>-(G7-G6)/G6</f>
+        <v>0.14164218361334646</v>
+      </c>
+      <c r="K7" s="28">
+        <f>-(H7-H6)/H6</f>
+        <v>0.73264486595592138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="43">
+        <v>2.1846528360502999</v>
+      </c>
+      <c r="D8" s="43">
+        <v>2.1117598756346401</v>
+      </c>
+      <c r="E8" s="43">
+        <v>6.1509378545840301</v>
+      </c>
+      <c r="F8" s="44">
+        <v>3372</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>3.0384597720560738</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="1"/>
+        <v>6.1509378545840301</v>
+      </c>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="106"/>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4.5754498409399202</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.98862289619102</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.921501729708055</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3372</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>5.46503504678555</v>
+      </c>
+      <c r="H9" s="53">
+        <f t="shared" si="1"/>
+        <v>0.921501729708055</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="24">
+        <f>-(G9-G8)/G8</f>
+        <v>-0.79862017494720827</v>
+      </c>
+      <c r="K9" s="25">
+        <f>-(H9-H8)/H8</f>
+        <v>0.85018516663742594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="105">
+        <v>43508</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8.2955347477795804</v>
+      </c>
+      <c r="D10" s="9">
+        <v>8.8469818474361404</v>
+      </c>
+      <c r="E10" s="9">
+        <v>20.177192762062901</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2053</v>
+      </c>
+      <c r="G10" s="51">
+        <f t="shared" si="0"/>
+        <v>12.127859850793255</v>
+      </c>
+      <c r="H10" s="52">
+        <f t="shared" si="1"/>
+        <v>20.177192762062901</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.2955347477795804</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.8469818474361404</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20.177192762062901</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2053</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>12.127859850793255</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="1"/>
+        <v>20.177192762062901</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="21">
+        <f>-(G11-G10)/G10</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <f>-(H11-H10)/H10</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="43">
+        <v>3.9141984344274401</v>
+      </c>
+      <c r="D12" s="43">
+        <v>3.94073728763051</v>
+      </c>
+      <c r="E12" s="43">
+        <v>7.9940310118094198</v>
+      </c>
+      <c r="F12" s="44">
+        <v>2474</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>5.5543100160322068</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="1"/>
+        <v>7.9940310118094198</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106"/>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.9141984344274401</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3.94073728763051</v>
+      </c>
+      <c r="E13" s="6">
+        <v>7.9940310118094198</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2474</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>5.5543100160322068</v>
+      </c>
+      <c r="H13" s="53">
+        <f t="shared" si="1"/>
+        <v>7.9940310118094198</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24">
+        <f>-(G13-G12)/G12</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <f>-(H13-H12)/H12</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29">
+        <f t="shared" ref="B17:C20" si="2">AVERAGE(G6,G2,G10)</f>
+        <v>10.631548042928634</v>
+      </c>
+      <c r="C17" s="29">
+        <f t="shared" si="2"/>
+        <v>17.279296270097031</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="29">
+        <f t="shared" si="2"/>
+        <v>10.111556354396592</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" si="2"/>
+        <v>12.962820290840448</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="29">
+        <f t="shared" si="2"/>
+        <v>4.2016239607729347</v>
+      </c>
+      <c r="C19" s="29">
+        <f t="shared" si="2"/>
+        <v>6.9631510562075967</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="39">
+        <f t="shared" si="2"/>
+        <v>5.0104823856827601</v>
+      </c>
+      <c r="C20" s="39">
+        <f t="shared" si="2"/>
+        <v>5.2200056812489386</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3685D6B-FB0F-4B87-A0EA-203817B84B8B}">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="105">
+        <v>43480</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="83">
+        <v>243</v>
+      </c>
+      <c r="D2" s="64">
+        <v>1.11512985316833</v>
+      </c>
+      <c r="E2" s="64">
+        <v>0.52768365118784</v>
+      </c>
+      <c r="F2" s="64">
+        <v>3.1737907920159598</v>
+      </c>
+      <c r="G2" s="71">
+        <f t="shared" ref="G2:G7" si="0">SQRT(D2^2+E2^2)</f>
+        <v>1.2336793040163037</v>
+      </c>
+      <c r="H2" s="72">
+        <f t="shared" ref="H2:H7" si="1">F2</f>
+        <v>3.1737907920159598</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="107"/>
+      <c r="B3" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="84">
+        <v>3624</v>
+      </c>
+      <c r="D3" s="69">
+        <v>5.7219633247950501</v>
+      </c>
+      <c r="E3" s="69">
+        <v>5.92226851415389</v>
+      </c>
+      <c r="F3" s="69">
+        <v>3.8623275188084798</v>
+      </c>
+      <c r="G3" s="71">
+        <f t="shared" si="0"/>
+        <v>8.2349334328844552</v>
+      </c>
+      <c r="H3" s="72">
+        <f t="shared" si="1"/>
+        <v>3.8623275188084798</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="21">
+        <f>-(G3-G2)/G3</f>
+        <v>-0.85018952319761709</v>
+      </c>
+      <c r="K3" s="28" t="e">
+        <f>-(#REF!-H2)/H2</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="105">
+        <v>43507</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="83">
+        <v>361</v>
+      </c>
+      <c r="D4" s="64">
+        <v>0.54646894272239799</v>
+      </c>
+      <c r="E4" s="64">
+        <v>0.63586166727910798</v>
+      </c>
+      <c r="F4" s="64">
+        <v>3.08179787773734</v>
+      </c>
+      <c r="G4" s="71">
+        <f t="shared" si="0"/>
+        <v>0.8384201603462923</v>
+      </c>
+      <c r="H4" s="72">
+        <f t="shared" si="1"/>
+        <v>3.08179787773734</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="84">
+        <v>5389</v>
+      </c>
+      <c r="D5" s="69">
+        <v>20.012158307143899</v>
+      </c>
+      <c r="E5" s="69">
+        <v>3.6346426017986402</v>
+      </c>
+      <c r="F5" s="69">
+        <v>3.5178718244363201</v>
+      </c>
+      <c r="G5" s="71">
+        <f t="shared" si="0"/>
+        <v>20.339545396910868</v>
+      </c>
+      <c r="H5" s="72">
+        <f t="shared" si="1"/>
+        <v>3.5178718244363201</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="21" t="e">
+        <f>-(#REF!-G4)/G4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="28" t="e">
+        <f>-(#REF!-H4)/H4</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="105">
+        <v>43508</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="86">
+        <v>401</v>
+      </c>
+      <c r="D6" s="85">
+        <v>1.0181735125209499</v>
+      </c>
+      <c r="E6" s="85">
+        <v>0.67286389883522302</v>
+      </c>
+      <c r="F6" s="85">
+        <v>3.6980847035180502</v>
+      </c>
+      <c r="G6" s="71">
+        <f t="shared" si="0"/>
+        <v>1.2204192427010425</v>
+      </c>
+      <c r="H6" s="72">
+        <f t="shared" si="1"/>
+        <v>3.6980847035180502</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="106"/>
+      <c r="B7" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="87">
+        <v>5936</v>
+      </c>
+      <c r="D7" s="74">
+        <v>5.2575891833484203</v>
+      </c>
+      <c r="E7" s="74">
+        <v>6.2689644941091096</v>
+      </c>
+      <c r="F7" s="74">
+        <v>4.1090938304157696</v>
+      </c>
+      <c r="G7" s="76">
+        <f t="shared" si="0"/>
+        <v>8.1818188594751344</v>
+      </c>
+      <c r="H7" s="77">
+        <f t="shared" si="1"/>
+        <v>4.1090938304157696</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="24" t="e">
+        <f>-(#REF!-G6)/G6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="25" t="e">
+        <f>-(#REF!-H6)/H6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29">
+        <f>AVERAGE(G6,G4,G2)</f>
+        <v>1.0975062356878795</v>
+      </c>
+      <c r="C11" s="29">
+        <f>AVERAGE(H6,H4,H2)</f>
+        <v>3.3178911244237832</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="39">
+        <f>AVERAGE(G7,G5,G3)</f>
+        <v>12.252099229756817</v>
+      </c>
+      <c r="C12" s="39">
+        <f>AVERAGE(H7,H5,H3)</f>
+        <v>3.8297643912201895</v>
+      </c>
+      <c r="D12" s="40">
+        <f>-(B12-B11)/B11</f>
+        <v>-10.163580516768198</v>
+      </c>
+      <c r="E12" s="41">
+        <f>-(C12-C11)/C11</f>
+        <v>-0.15427669191083029</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC89752-558F-4839-818B-D887AB018A8B}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5982,7 +11113,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="102">
+      <c r="A2" s="105">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -6017,7 +11148,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -6054,7 +11185,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="102">
+      <c r="A4" s="105">
         <v>43507</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -6089,7 +11220,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -6126,7 +11257,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="102">
+      <c r="A6" s="105">
         <v>43508</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -6162,7 +11293,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -6346,350 +11477,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3685D6B-FB0F-4B87-A0EA-203817B84B8B}">
-  <dimension ref="A1:R12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="102">
-        <v>43480</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="64">
-        <v>1.11512985316833</v>
-      </c>
-      <c r="D2" s="64">
-        <v>0.52768365118784</v>
-      </c>
-      <c r="E2" s="64">
-        <v>3.1737907920159598</v>
-      </c>
-      <c r="F2" s="83">
-        <v>243</v>
-      </c>
-      <c r="G2" s="71">
-        <f t="shared" ref="G2:G7" si="0">SQRT(C2^2+D2^2)</f>
-        <v>1.2336793040163037</v>
-      </c>
-      <c r="H2" s="72">
-        <f t="shared" ref="H2:H7" si="1">E2</f>
-        <v>3.1737907920159598</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104"/>
-      <c r="B3" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="69">
-        <v>5.7219633247950501</v>
-      </c>
-      <c r="D3" s="69">
-        <v>5.92226851415389</v>
-      </c>
-      <c r="E3" s="69">
-        <v>3.8623275188084798</v>
-      </c>
-      <c r="F3" s="84">
-        <v>3624</v>
-      </c>
-      <c r="G3" s="71">
-        <f t="shared" si="0"/>
-        <v>8.2349334328844552</v>
-      </c>
-      <c r="H3" s="72">
-        <f t="shared" si="1"/>
-        <v>3.8623275188084798</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="21">
-        <f>-(G3-G2)/G3</f>
-        <v>-0.85018952319761709</v>
-      </c>
-      <c r="K3" s="28" t="e">
-        <f>-(#REF!-H2)/H2</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="102">
-        <v>43507</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="64">
-        <v>0.54646894272239799</v>
-      </c>
-      <c r="D4" s="64">
-        <v>0.63586166727910798</v>
-      </c>
-      <c r="E4" s="64">
-        <v>3.08179787773734</v>
-      </c>
-      <c r="F4" s="83">
-        <v>361</v>
-      </c>
-      <c r="G4" s="71">
-        <f t="shared" si="0"/>
-        <v>0.8384201603462923</v>
-      </c>
-      <c r="H4" s="72">
-        <f t="shared" si="1"/>
-        <v>3.08179787773734</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="69">
-        <v>20.012158307143899</v>
-      </c>
-      <c r="D5" s="69">
-        <v>3.6346426017986402</v>
-      </c>
-      <c r="E5" s="69">
-        <v>3.5178718244363201</v>
-      </c>
-      <c r="F5" s="84">
-        <v>5389</v>
-      </c>
-      <c r="G5" s="71">
-        <f t="shared" si="0"/>
-        <v>20.339545396910868</v>
-      </c>
-      <c r="H5" s="72">
-        <f t="shared" si="1"/>
-        <v>3.5178718244363201</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="21" t="e">
-        <f>-(#REF!-G4)/G4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" s="28" t="e">
-        <f>-(#REF!-H4)/H4</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="102">
-        <v>43508</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="85">
-        <v>1.0181735125209499</v>
-      </c>
-      <c r="D6" s="85">
-        <v>0.67286389883522302</v>
-      </c>
-      <c r="E6" s="85">
-        <v>3.6980847035180502</v>
-      </c>
-      <c r="F6" s="86">
-        <v>401</v>
-      </c>
-      <c r="G6" s="71">
-        <f t="shared" si="0"/>
-        <v>1.2204192427010425</v>
-      </c>
-      <c r="H6" s="72">
-        <f t="shared" si="1"/>
-        <v>3.6980847035180502</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="74">
-        <v>5.2575891833484203</v>
-      </c>
-      <c r="D7" s="74">
-        <v>6.2689644941091096</v>
-      </c>
-      <c r="E7" s="74">
-        <v>4.1090938304157696</v>
-      </c>
-      <c r="F7" s="87">
-        <v>5936</v>
-      </c>
-      <c r="G7" s="76">
-        <f t="shared" si="0"/>
-        <v>8.1818188594751344</v>
-      </c>
-      <c r="H7" s="77">
-        <f t="shared" si="1"/>
-        <v>4.1090938304157696</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="24" t="e">
-        <f>-(#REF!-G6)/G6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="25" t="e">
-        <f>-(#REF!-H6)/H6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="R7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="29">
-        <f>AVERAGE(G6,G4,G2)</f>
-        <v>1.0975062356878795</v>
-      </c>
-      <c r="C11" s="29">
-        <f>AVERAGE(H6,H4,H2)</f>
-        <v>3.3178911244237832</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="39">
-        <f>AVERAGE(G7,G5,G3)</f>
-        <v>12.252099229756817</v>
-      </c>
-      <c r="C12" s="39">
-        <f>AVERAGE(H7,H5,H3)</f>
-        <v>3.8297643912201895</v>
-      </c>
-      <c r="D12" s="40">
-        <f>-(B12-B11)/B11</f>
-        <v>-10.163580516768198</v>
-      </c>
-      <c r="E12" s="41">
-        <f>-(C12-C11)/C11</f>
-        <v>-0.15427669191083029</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DACDF1-4DCE-4938-A570-7490D7962A5C}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" activeCellId="2" sqref="G5 G9 G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6715,54 +11508,54 @@
       <c r="B1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="104" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108">
+      <c r="A2" s="111">
         <v>43480</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="83">
+        <v>1378</v>
+      </c>
+      <c r="D2" s="64">
         <v>6.9513665976951602</v>
       </c>
-      <c r="D2" s="64">
+      <c r="E2" s="64">
         <v>5.3196453785240099</v>
       </c>
-      <c r="E2" s="64">
+      <c r="F2" s="64">
         <v>13.985791685288399</v>
       </c>
-      <c r="F2" s="83">
-        <v>1378</v>
-      </c>
       <c r="G2" s="66">
-        <f t="shared" ref="G2:G13" si="0">SQRT(C2^2+D2^2)</f>
+        <f t="shared" ref="G2:G13" si="0">SQRT(D2^2+E2^2)</f>
         <v>8.7532922108657978</v>
       </c>
       <c r="H2" s="67">
-        <f t="shared" ref="H2:H13" si="1">E2</f>
+        <f t="shared" ref="H2:H13" si="1">F2</f>
         <v>13.985791685288399</v>
       </c>
-      <c r="I2" s="95"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="26" t="s">
         <v>15</v>
       </c>
@@ -6771,54 +11564,54 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110">
+      <c r="A3" s="113">
         <v>43507</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="86">
+        <v>1378</v>
+      </c>
+      <c r="D3" s="85">
         <v>6.8501660571636203</v>
       </c>
-      <c r="D3" s="85">
+      <c r="E3" s="85">
         <v>5.3018975840953404</v>
       </c>
-      <c r="E3" s="85">
+      <c r="F3" s="85">
         <v>13.964606848052201</v>
       </c>
-      <c r="F3" s="86">
-        <v>1378</v>
-      </c>
       <c r="G3" s="71">
-        <f t="shared" ref="G3:G4" si="2">SQRT(C3^2+D3^2)</f>
+        <f t="shared" ref="G3:G4" si="2">SQRT(D3^2+E3^2)</f>
         <v>8.6622683520514752</v>
       </c>
       <c r="H3" s="72">
-        <f t="shared" ref="H3:H4" si="3">E3</f>
+        <f t="shared" ref="H3:H4" si="3">F3</f>
         <v>13.964606848052201</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="110">
+      <c r="A4" s="113">
         <v>43508</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="86">
+        <v>3502</v>
+      </c>
+      <c r="D4" s="85">
         <v>3.2555476511442198</v>
       </c>
-      <c r="D4" s="85">
+      <c r="E4" s="85">
         <v>2.3448609139260901</v>
       </c>
-      <c r="E4" s="85">
+      <c r="F4" s="85">
         <v>6.7444843022293401</v>
-      </c>
-      <c r="F4" s="86">
-        <v>3502</v>
       </c>
       <c r="G4" s="71">
         <f t="shared" si="2"/>
@@ -6828,26 +11621,26 @@
         <f t="shared" si="3"/>
         <v>6.7444843022293401</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="93"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="87">
+        <v>3502</v>
+      </c>
+      <c r="D5" s="74">
         <v>3.1691414151519499</v>
       </c>
-      <c r="D5" s="74">
+      <c r="E5" s="74">
         <v>2.3351453172462699</v>
       </c>
-      <c r="E5" s="74">
+      <c r="F5" s="74">
         <v>6.7455109879491504</v>
-      </c>
-      <c r="F5" s="87">
-        <v>3502</v>
       </c>
       <c r="G5" s="76">
         <f t="shared" si="0"/>
@@ -6857,7 +11650,7 @@
         <f t="shared" si="1"/>
         <v>6.7455109879491504</v>
       </c>
-      <c r="I5" s="96"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="21">
         <f>-(G5-G2)/G2</f>
         <v>0.55027872293720237</v>
@@ -6868,23 +11661,23 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="110">
+      <c r="A6" s="113">
         <v>43507</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="83">
+        <v>1575</v>
+      </c>
+      <c r="D6" s="64">
         <v>8.0226695059320896</v>
       </c>
-      <c r="D6" s="64">
+      <c r="E6" s="64">
         <v>7.54544773431327</v>
       </c>
-      <c r="E6" s="64">
+      <c r="F6" s="64">
         <v>17.674904362939799</v>
-      </c>
-      <c r="F6" s="83">
-        <v>1575</v>
       </c>
       <c r="G6" s="66">
         <f t="shared" si="0"/>
@@ -6894,7 +11687,7 @@
         <f t="shared" si="1"/>
         <v>17.674904362939799</v>
       </c>
-      <c r="I6" s="95"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="26" t="s">
         <v>15</v>
       </c>
@@ -6903,50 +11696,50 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="84">
+        <v>1575</v>
+      </c>
+      <c r="D7" s="69">
         <v>8.1315119893046095</v>
       </c>
-      <c r="D7" s="69">
+      <c r="E7" s="69">
         <v>7.5808350980239902</v>
       </c>
-      <c r="E7" s="69">
+      <c r="F7" s="69">
         <v>17.660712793094199</v>
       </c>
-      <c r="F7" s="84">
-        <v>1575</v>
-      </c>
       <c r="G7" s="71">
-        <f t="shared" ref="G7:G8" si="4">SQRT(C7^2+D7^2)</f>
+        <f t="shared" ref="G7:G8" si="4">SQRT(D7^2+E7^2)</f>
         <v>11.117128586808601</v>
       </c>
       <c r="H7" s="72">
-        <f t="shared" ref="H7:H8" si="5">E7</f>
+        <f t="shared" ref="H7:H8" si="5">F7</f>
         <v>17.660712793094199</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="100"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="84">
+        <v>3372</v>
+      </c>
+      <c r="D8" s="69">
         <v>2.1846528360502999</v>
       </c>
-      <c r="D8" s="69">
+      <c r="E8" s="69">
         <v>2.1117598756346401</v>
       </c>
-      <c r="E8" s="69">
+      <c r="F8" s="69">
         <v>6.1509378545840301</v>
-      </c>
-      <c r="F8" s="84">
-        <v>3372</v>
       </c>
       <c r="G8" s="71">
         <f t="shared" si="4"/>
@@ -6956,26 +11749,26 @@
         <f t="shared" si="5"/>
         <v>6.1509378545840301</v>
       </c>
-      <c r="I8" s="96"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="97"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="100"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="87">
+        <v>3372</v>
+      </c>
+      <c r="D9" s="74">
         <v>2.1381807040121101</v>
       </c>
-      <c r="D9" s="74">
+      <c r="E9" s="74">
         <v>2.0491882503524499</v>
       </c>
-      <c r="E9" s="74">
+      <c r="F9" s="74">
         <v>6.0368888078580802</v>
-      </c>
-      <c r="F9" s="87">
-        <v>3372</v>
       </c>
       <c r="G9" s="76">
         <f t="shared" si="0"/>
@@ -6985,7 +11778,7 @@
         <f t="shared" si="1"/>
         <v>6.0368888078580802</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="102" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="24">
@@ -6998,23 +11791,23 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="110">
+      <c r="A10" s="113">
         <v>43508</v>
       </c>
       <c r="B10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="83">
+        <v>2053</v>
+      </c>
+      <c r="D10" s="64">
         <v>8.2955347477795804</v>
       </c>
-      <c r="D10" s="64">
+      <c r="E10" s="64">
         <v>8.8469818474361404</v>
       </c>
-      <c r="E10" s="64">
+      <c r="F10" s="64">
         <v>20.177192762062901</v>
-      </c>
-      <c r="F10" s="83">
-        <v>2053</v>
       </c>
       <c r="G10" s="66">
         <f t="shared" si="0"/>
@@ -7024,7 +11817,7 @@
         <f t="shared" si="1"/>
         <v>20.177192762062901</v>
       </c>
-      <c r="I10" s="95"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="26" t="s">
         <v>15</v>
       </c>
@@ -7034,51 +11827,51 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="84">
+        <v>2053</v>
+      </c>
+      <c r="D11" s="69">
         <v>8.4320914976564403</v>
       </c>
-      <c r="D11" s="69">
+      <c r="E11" s="69">
         <v>8.87468652587728</v>
       </c>
-      <c r="E11" s="69">
+      <c r="F11" s="69">
         <v>20.405572587687299</v>
       </c>
-      <c r="F11" s="84">
-        <v>2053</v>
-      </c>
       <c r="G11" s="71">
-        <f t="shared" ref="G11:G12" si="6">SQRT(C11^2+D11^2)</f>
+        <f t="shared" ref="G11:G12" si="6">SQRT(D11^2+E11^2)</f>
         <v>12.241741214281477</v>
       </c>
       <c r="H11" s="72">
-        <f t="shared" ref="H11:H12" si="7">E11</f>
+        <f t="shared" ref="H11:H12" si="7">F11</f>
         <v>20.405572587687299</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="97"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="84">
+        <v>2474</v>
+      </c>
+      <c r="D12" s="69">
         <v>3.9141984344274401</v>
       </c>
-      <c r="D12" s="69">
+      <c r="E12" s="69">
         <v>3.94073728763051</v>
       </c>
-      <c r="E12" s="69">
+      <c r="F12" s="69">
         <v>7.9940310118094198</v>
-      </c>
-      <c r="F12" s="84">
-        <v>2474</v>
       </c>
       <c r="G12" s="71">
         <f t="shared" si="6"/>
@@ -7088,27 +11881,27 @@
         <f t="shared" si="7"/>
         <v>7.9940310118094198</v>
       </c>
-      <c r="I12" s="96"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="97"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="87">
+        <v>2474</v>
+      </c>
+      <c r="D13" s="74">
         <v>3.4736619854876398</v>
       </c>
-      <c r="D13" s="74">
+      <c r="E13" s="74">
         <v>3.7861995141154301</v>
       </c>
-      <c r="E13" s="74">
+      <c r="F13" s="74">
         <v>7.6625698270561404</v>
-      </c>
-      <c r="F13" s="87">
-        <v>2474</v>
       </c>
       <c r="G13" s="76">
         <f t="shared" si="0"/>
@@ -7118,7 +11911,7 @@
         <f t="shared" si="1"/>
         <v>7.6625698270561404</v>
       </c>
-      <c r="I13" s="99"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="24">
         <f>-(G13-G10)/G10</f>
         <v>0.57632656258408677</v>
@@ -7217,12 +12010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE96ECAA-C126-4D59-90B7-D5C0A3016267}">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7269,7 +12062,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="105">
+      <c r="A2" s="108">
         <v>43480</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -7304,7 +12097,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="68" t="s">
         <v>8</v>
       </c>
@@ -7341,7 +12134,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="68" t="s">
         <v>48</v>
       </c>
@@ -7378,7 +12171,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="68" t="s">
         <v>49</v>
       </c>
@@ -7407,7 +12200,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="73" t="s">
         <v>42</v>
       </c>
@@ -7436,7 +12229,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="105">
+      <c r="A7" s="108">
         <v>43507</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -7471,7 +12264,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="68" t="s">
         <v>8</v>
       </c>
@@ -7508,7 +12301,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="68" t="s">
         <v>48</v>
       </c>
@@ -7545,7 +12338,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="68" t="s">
         <v>49</v>
       </c>
@@ -7574,7 +12367,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="73" t="s">
         <v>42</v>
       </c>
@@ -7603,7 +12396,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="105">
+      <c r="A12" s="108">
         <v>43508</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -7639,7 +12432,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="68" t="s">
         <v>8</v>
       </c>
@@ -7680,7 +12473,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="68" t="s">
         <v>48</v>
       </c>
@@ -7718,7 +12511,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="68" t="s">
         <v>49</v>
       </c>
@@ -7748,7 +12541,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="73" t="s">
         <v>42</v>
       </c>
@@ -7920,7 +12713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73135E9-6747-49A5-BF9B-754FF728CB5F}">
   <dimension ref="A1:R24"/>
   <sheetViews>
@@ -7972,7 +12765,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="105">
+      <c r="A2" s="108">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8007,7 +12800,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -8044,7 +12837,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -8081,7 +12874,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -8110,7 +12903,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -8139,7 +12932,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="105">
+      <c r="A7" s="108">
         <v>43507</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -8174,7 +12967,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8211,7 +13004,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -8248,7 +13041,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -8277,7 +13070,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -8306,7 +13099,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="105">
+      <c r="A12" s="108">
         <v>43508</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -8342,7 +13135,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -8383,7 +13176,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -8421,7 +13214,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -8451,7 +13244,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
@@ -8608,7 +13401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28683C7-20F8-4018-AC13-2EBBA1AE900C}">
   <dimension ref="A1:R36"/>
   <sheetViews>
@@ -8660,7 +13453,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="105">
+      <c r="A2" s="108">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8695,7 +13488,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -8732,7 +13525,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -8769,7 +13562,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -8798,7 +13591,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -8827,7 +13620,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="105">
+      <c r="A7" s="108">
         <v>43507</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -8862,7 +13655,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8899,7 +13692,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -8936,7 +13729,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -8965,7 +13758,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -8994,7 +13787,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="105">
+      <c r="A12" s="108">
         <v>43508</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9030,7 +13823,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -9071,7 +13864,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -9109,7 +13902,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -9139,7 +13932,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
@@ -9315,80 +14108,80 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="105">
+      <c r="H31" s="108">
         <v>43480</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="90">
+      <c r="J31" s="93">
         <v>0.51279483593527952</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31" s="93">
         <v>-0.74622278131140984</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="106"/>
+      <c r="H32" s="109"/>
       <c r="I32" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="90">
+      <c r="J32" s="93">
         <v>0.5416465031008395</v>
       </c>
-      <c r="K32" s="90">
+      <c r="K32" s="93">
         <v>0.51776170745315497</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="105">
+      <c r="H33" s="108">
         <v>43507</v>
       </c>
       <c r="I33" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="90">
+      <c r="J33" s="93">
         <v>0.85061319155552262</v>
       </c>
-      <c r="K33" s="90">
+      <c r="K33" s="93">
         <v>-0.74848265131706859</v>
       </c>
     </row>
     <row r="34" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="106"/>
+      <c r="H34" s="109"/>
       <c r="I34" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="90">
+      <c r="J34" s="93">
         <v>0.72411477181471873</v>
       </c>
-      <c r="K34" s="90">
+      <c r="K34" s="93">
         <v>0.6519959752947162</v>
       </c>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="105">
+      <c r="H35" s="108">
         <v>43508</v>
       </c>
       <c r="I35" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="90">
+      <c r="J35" s="93">
         <v>0.32113994315580374</v>
       </c>
-      <c r="K35" s="90">
+      <c r="K35" s="93">
         <v>-0.94544864189693167</v>
       </c>
     </row>
     <row r="36" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="107"/>
+      <c r="H36" s="110"/>
       <c r="I36" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="90">
+      <c r="J36" s="93">
         <v>0.54202059684348081</v>
       </c>
-      <c r="K36" s="90">
+      <c r="K36" s="93">
         <v>0.60380856216828283</v>
       </c>
     </row>
@@ -9405,7 +14198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D3719B-BFCA-4C14-89E3-6D9838991F23}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -9588,7 +14381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245011F6-CFCB-4083-9B60-AC01178BFE42}">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -9640,7 +14433,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="102">
+      <c r="A2" s="105">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9675,7 +14468,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
@@ -9712,7 +14505,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
@@ -9741,7 +14534,7 @@
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="102">
+      <c r="A5" s="105">
         <v>43507</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -9776,7 +14569,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -9813,7 +14606,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
@@ -9842,7 +14635,7 @@
       <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="102">
+      <c r="A8" s="105">
         <v>43508</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -9878,7 +14671,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -9919,7 +14712,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
@@ -10032,557 +14825,4 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574635A4-E44F-4E4A-8A84-F45E491401B1}">
-  <dimension ref="A1:R20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="102">
-        <v>43480</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="10">
-        <v>6.9513665976951602</v>
-      </c>
-      <c r="D2" s="10">
-        <v>5.3196453785240099</v>
-      </c>
-      <c r="E2" s="10">
-        <v>13.985791685288399</v>
-      </c>
-      <c r="F2" s="13">
-        <v>1378</v>
-      </c>
-      <c r="G2" s="51">
-        <f t="shared" ref="G2:G13" si="0">SQRT(C2^2+D2^2)</f>
-        <v>8.7532922108657978</v>
-      </c>
-      <c r="H2" s="52">
-        <f t="shared" ref="H2:H13" si="1">E2</f>
-        <v>13.985791685288399</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.9513665976951602</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5.3196453785240099</v>
-      </c>
-      <c r="E3" s="3">
-        <v>13.985791685288399</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1378</v>
-      </c>
-      <c r="G3" s="18">
-        <f t="shared" si="0"/>
-        <v>8.7532922108657978</v>
-      </c>
-      <c r="H3" s="19">
-        <f t="shared" si="1"/>
-        <v>13.985791685288399</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="21">
-        <f>-(G3-G2)/G2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="28">
-        <f>-(H3-H2)/H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="43">
-        <v>3.2555476511442198</v>
-      </c>
-      <c r="D4" s="43">
-        <v>2.3448609139260901</v>
-      </c>
-      <c r="E4" s="43">
-        <v>6.7444843022293401</v>
-      </c>
-      <c r="F4" s="44">
-        <v>3502</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" si="0"/>
-        <v>4.0121020942305226</v>
-      </c>
-      <c r="H4" s="19">
-        <f t="shared" si="1"/>
-        <v>6.7444843022293401</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103"/>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3.2555476511442198</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.3448609139260901</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6.7444843022293401</v>
-      </c>
-      <c r="F5" s="15">
-        <v>3502</v>
-      </c>
-      <c r="G5" s="20">
-        <f t="shared" si="0"/>
-        <v>4.0121020942305226</v>
-      </c>
-      <c r="H5" s="53">
-        <f t="shared" si="1"/>
-        <v>6.7444843022293401</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24">
-        <f>-(G5-G4)/G4</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="25">
-        <f>-(H5-H4)/H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="102">
-        <v>43507</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>8.0226695059320896</v>
-      </c>
-      <c r="D6" s="10">
-        <v>7.54544773431327</v>
-      </c>
-      <c r="E6" s="10">
-        <v>17.674904362939799</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1575</v>
-      </c>
-      <c r="G6" s="51">
-        <f t="shared" si="0"/>
-        <v>11.013492067126842</v>
-      </c>
-      <c r="H6" s="52">
-        <f t="shared" si="1"/>
-        <v>17.674904362939799</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9.3967308672571601</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.03461717875116</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.7254764251700401</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1575</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="0"/>
-        <v>9.4535170015307273</v>
-      </c>
-      <c r="H7" s="19">
-        <f t="shared" si="1"/>
-        <v>4.7254764251700401</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="21">
-        <f>-(G7-G6)/G6</f>
-        <v>0.14164218361334646</v>
-      </c>
-      <c r="K7" s="28">
-        <f>-(H7-H6)/H6</f>
-        <v>0.73264486595592138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="43">
-        <v>2.1846528360502999</v>
-      </c>
-      <c r="D8" s="43">
-        <v>2.1117598756346401</v>
-      </c>
-      <c r="E8" s="43">
-        <v>6.1509378545840301</v>
-      </c>
-      <c r="F8" s="44">
-        <v>3372</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="0"/>
-        <v>3.0384597720560738</v>
-      </c>
-      <c r="H8" s="19">
-        <f t="shared" si="1"/>
-        <v>6.1509378545840301</v>
-      </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4.5754498409399202</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2.98862289619102</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.921501729708055</v>
-      </c>
-      <c r="F9" s="15">
-        <v>3372</v>
-      </c>
-      <c r="G9" s="20">
-        <f t="shared" si="0"/>
-        <v>5.46503504678555</v>
-      </c>
-      <c r="H9" s="53">
-        <f t="shared" si="1"/>
-        <v>0.921501729708055</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="24">
-        <f>-(G9-G8)/G8</f>
-        <v>-0.79862017494720827</v>
-      </c>
-      <c r="K9" s="25">
-        <f>-(H9-H8)/H8</f>
-        <v>0.85018516663742594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="102">
-        <v>43508</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9">
-        <v>8.2955347477795804</v>
-      </c>
-      <c r="D10" s="9">
-        <v>8.8469818474361404</v>
-      </c>
-      <c r="E10" s="9">
-        <v>20.177192762062901</v>
-      </c>
-      <c r="F10" s="16">
-        <v>2053</v>
-      </c>
-      <c r="G10" s="51">
-        <f t="shared" si="0"/>
-        <v>12.127859850793255</v>
-      </c>
-      <c r="H10" s="52">
-        <f t="shared" si="1"/>
-        <v>20.177192762062901</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8.2955347477795804</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8.8469818474361404</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20.177192762062901</v>
-      </c>
-      <c r="F11" s="14">
-        <v>2053</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="0"/>
-        <v>12.127859850793255</v>
-      </c>
-      <c r="H11" s="19">
-        <f t="shared" si="1"/>
-        <v>20.177192762062901</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="21">
-        <f>-(G11-G10)/G10</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="28">
-        <f>-(H11-H10)/H10</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="R11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="43">
-        <v>3.9141984344274401</v>
-      </c>
-      <c r="D12" s="43">
-        <v>3.94073728763051</v>
-      </c>
-      <c r="E12" s="43">
-        <v>7.9940310118094198</v>
-      </c>
-      <c r="F12" s="44">
-        <v>2474</v>
-      </c>
-      <c r="G12" s="18">
-        <f t="shared" si="0"/>
-        <v>5.5543100160322068</v>
-      </c>
-      <c r="H12" s="19">
-        <f t="shared" si="1"/>
-        <v>7.9940310118094198</v>
-      </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3.9141984344274401</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3.94073728763051</v>
-      </c>
-      <c r="E13" s="6">
-        <v>7.9940310118094198</v>
-      </c>
-      <c r="F13" s="15">
-        <v>2474</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="0"/>
-        <v>5.5543100160322068</v>
-      </c>
-      <c r="H13" s="53">
-        <f t="shared" si="1"/>
-        <v>7.9940310118094198</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24">
-        <f>-(G13-G12)/G12</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="25">
-        <f>-(H13-H12)/H12</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="29">
-        <f t="shared" ref="B17:C20" si="2">AVERAGE(G6,G2,G10)</f>
-        <v>10.631548042928634</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" si="2"/>
-        <v>17.279296270097031</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="29">
-        <f t="shared" si="2"/>
-        <v>10.111556354396592</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" si="2"/>
-        <v>12.962820290840448</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="29">
-        <f t="shared" si="2"/>
-        <v>4.2016239607729347</v>
-      </c>
-      <c r="C19" s="29">
-        <f t="shared" si="2"/>
-        <v>6.9631510562075967</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="39">
-        <f t="shared" si="2"/>
-        <v>5.0104823856827601</v>
-      </c>
-      <c r="C20" s="39">
-        <f t="shared" si="2"/>
-        <v>5.2200056812489386</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Tabelas comparando 15jan, 11fev e 12fev.xlsx
+++ b/Tabelas comparando 15jan, 11fev e 12fev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UERJ\_Projeto Final\Python\tcc-guilherme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E9F67C-88CE-4BC4-A826-5D39CE03578D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2236224-3AB8-4494-9965-73FE02366029}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C24E7D4-FEE7-47C9-A1FD-E4D8DEF6E0AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C24E7D4-FEE7-47C9-A1FD-E4D8DEF6E0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="TODAS AS TABELAS" sheetId="15" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="73">
   <si>
     <t>Dia</t>
   </si>
@@ -247,12 +247,24 @@
   <si>
     <t>PPS</t>
   </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Melhoria em Planimetria</t>
+  </si>
+  <si>
+    <t>Melhoria em Altimetria</t>
+  </si>
+  <si>
+    <t>Épocas solucionadas/Épocas observadas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +279,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -700,28 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -732,134 +728,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1044,15 +918,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,24 +937,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1104,28 +951,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,88 +960,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1379,6 +1178,22 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3765,7 +3580,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000005-52DA-4FB9-89D0-2D3A04C936B4}"/>
                     </c:ext>
@@ -8669,7 +8484,7 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
@@ -8875,16 +8690,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45E3E6D1-BE49-4F79-8BCB-4146576E0923}" name="Tabela2" displayName="Tabela2" ref="A1:G27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45E3E6D1-BE49-4F79-8BCB-4146576E0923}" name="Tabela2" displayName="Tabela2" ref="A1:G27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G27" xr:uid="{06541A02-666E-457C-9A0F-A8C7FB7FBEEF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2A0D1EE6-7D8C-4085-8E18-8D1A25D59A9B}" name="Coluna1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FE63AAA7-73DF-4F17-9BCA-115450663FD4}" name="Coluna2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{8EDB3180-E380-47C4-82E1-04A62B17A9D4}" name="Coluna3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{60357D93-1C51-4B78-B98D-A8F4BC957C7C}" name="Coluna4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4AEEB2DD-F209-4975-A126-EB28BE9A40AA}" name="Coluna5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D1E91222-C504-43A6-8CD1-28C8F2C14BE5}" name="Coluna6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{7AB189D5-CF18-46A8-89DE-FE79D3A45A33}" name="Coluna7" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{2A0D1EE6-7D8C-4085-8E18-8D1A25D59A9B}" name="Coluna1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{FE63AAA7-73DF-4F17-9BCA-115450663FD4}" name="Coluna2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8EDB3180-E380-47C4-82E1-04A62B17A9D4}" name="Coluna3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{60357D93-1C51-4B78-B98D-A8F4BC957C7C}" name="Coluna4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4AEEB2DD-F209-4975-A126-EB28BE9A40AA}" name="Coluna5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D1E91222-C504-43A6-8CD1-28C8F2C14BE5}" name="Coluna6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{7AB189D5-CF18-46A8-89DE-FE79D3A45A33}" name="Coluna7" dataDxfId="0">
       <calculatedColumnFormula>SQRT(D2^2+E2^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9189,10 +9004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E76E2E-C223-469C-8F66-73CFA993B7B9}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9209,74 +9024,87 @@
     <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="109" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="120" t="s">
-        <v>14</v>
-      </c>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="120"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="90">
+      <c r="H3" s="124"/>
+      <c r="I3" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="112">
         <v>43480</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -9288,30 +9116,35 @@
       <c r="D4" s="64">
         <v>1.11512985316833</v>
       </c>
-      <c r="E4" s="138">
+      <c r="E4" s="64">
         <v>0.52768365118784</v>
       </c>
-      <c r="F4" s="146">
+      <c r="F4" s="64">
         <v>3.1737907920159598</v>
       </c>
-      <c r="G4" s="140">
+      <c r="G4" s="64">
         <f t="shared" ref="G4" si="0">SQRT(D4^2+E4^2)</f>
         <v>1.2336793040163037</v>
       </c>
-      <c r="H4" s="133">
-        <f>F5</f>
-        <v>3.9944410828025601</v>
-      </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="10">
+        <f>G5-G7</f>
+        <v>-0.42733491916701993</v>
+      </c>
+      <c r="J4" s="121">
+        <f>(G5-G6)/G6</f>
+        <v>-5.9218721995580578E-2</v>
+      </c>
+      <c r="K4" s="127">
+        <f>G6-G5</f>
+        <v>0.51835877798134256</v>
+      </c>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="S4" s="131"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="113"/>
       <c r="B5" s="68" t="s">
         <v>5</v>
       </c>
@@ -9321,34 +9154,31 @@
       <c r="D5" s="69">
         <v>5.7219633247950501</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E5" s="69">
         <v>5.92226851415389</v>
       </c>
-      <c r="F5" s="147">
+      <c r="F5" s="69">
         <v>3.9944410828025601</v>
       </c>
-      <c r="G5" s="141">
+      <c r="G5" s="69">
         <f>SQRT(D5^2+E5^2)</f>
         <v>8.2349334328844552</v>
       </c>
-      <c r="H5" s="133">
-        <f>F6</f>
-        <v>13.985791685288399</v>
-      </c>
-      <c r="I5" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="21">
-        <f>(G5-G8)/G5</f>
-        <v>0.51279483593527952</v>
-      </c>
-      <c r="K5" s="28">
-        <f>(H4-H7)/H4</f>
-        <v>-0.68846758843600431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="2">
+        <f>G4/Tabela2[[#This Row],[Coluna7]]</f>
+        <v>0.14981047680238285</v>
+      </c>
+      <c r="J5" s="125">
+        <f>(G6-G7)/G7</f>
+        <v>1.0508085770947693E-2</v>
+      </c>
+      <c r="K5" s="128"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="113"/>
       <c r="B6" s="68" t="s">
         <v>68</v>
       </c>
@@ -9358,23 +9188,29 @@
       <c r="D6" s="69">
         <v>6.9513665976951602</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E6" s="69">
         <v>5.3196453785240099</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="69">
         <v>13.985791685288399</v>
       </c>
-      <c r="G6" s="141">
+      <c r="G6" s="69">
         <f>SQRT(D6^2+E6^2)</f>
         <v>8.7532922108657978</v>
       </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="2">
+        <f>Tabela2[[#This Row],[Coluna3]]/3624</f>
+        <v>0.38024282560706402</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="128"/>
+      <c r="M6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="113"/>
       <c r="B7" s="68" t="s">
         <v>41</v>
       </c>
@@ -9384,34 +9220,29 @@
       <c r="D7" s="69">
         <v>6.8501660571636203</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7" s="69">
         <v>5.3018975840953404</v>
       </c>
-      <c r="F7" s="147">
+      <c r="F7" s="69">
         <v>13.964606848052201</v>
       </c>
-      <c r="G7" s="141">
+      <c r="G7" s="69">
         <f>SQRT(D7^2+E7^2)</f>
         <v>8.6622683520514752</v>
       </c>
-      <c r="H7" s="133">
-        <f>F8</f>
-        <v>6.7444843022293401</v>
-      </c>
-      <c r="I7" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="46">
-        <f>(G6-G8)/G6</f>
-        <v>0.5416465031008395</v>
-      </c>
-      <c r="K7" s="47">
-        <f>(H5-H7)/H5</f>
-        <v>0.51776170745315497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="2">
+        <f>Tabela2[[#This Row],[Coluna3]]/3624</f>
+        <v>0.38024282560706402</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="128"/>
+      <c r="M7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="113"/>
       <c r="B8" s="68" t="s">
         <v>48</v>
       </c>
@@ -9421,23 +9252,58 @@
       <c r="D8" s="69">
         <v>3.2555476511442198</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="69">
         <v>2.3448609139260901</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="69">
         <v>6.7444843022293401</v>
       </c>
-      <c r="G8" s="141">
+      <c r="G8" s="69">
         <f>SQRT(D8^2+E8^2)</f>
         <v>4.0121020942305226</v>
       </c>
-      <c r="H8" s="133"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="125">
+        <f>(Tabela2[[#This Row],[Coluna6]]-F7)/F7</f>
+        <v>-0.51703013370762607</v>
+      </c>
+      <c r="K8" s="128"/>
+      <c r="L8">
+        <f>Tabela2[[#This Row],[Coluna3]]-C6</f>
+        <v>2124</v>
+      </c>
+      <c r="M8" s="130">
+        <f>(Tabela2[[#This Row],[Coluna3]]-C6)/Tabela2[[#This Row],[Coluna3]]</f>
+        <v>0.60651056539120507</v>
+      </c>
+      <c r="N8" s="131">
+        <f>Tabela2[[#This Row],[Coluna7]]-G5</f>
+        <v>-4.2228313386539327</v>
+      </c>
+      <c r="O8" s="130">
+        <f>(Tabela2[[#This Row],[Coluna7]]-G5)/G5</f>
+        <v>-0.51279483593527952</v>
+      </c>
+      <c r="P8">
+        <f>(F6-Tabela2[[#This Row],[Coluna6]])/F6</f>
+        <v>0.51776170745315497</v>
+      </c>
+      <c r="Q8">
+        <f>(G6-Tabela2[[#This Row],[Coluna7]])/G6</f>
+        <v>0.5416465031008395</v>
+      </c>
+      <c r="R8" s="131">
+        <f>F6-Tabela2[[#This Row],[Coluna6]]</f>
+        <v>7.2413073830590591</v>
+      </c>
+      <c r="S8" s="131">
+        <f>G6-Tabela2[[#This Row],[Coluna7]]</f>
+        <v>4.7411901166352752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="113"/>
       <c r="B9" s="68" t="s">
         <v>51</v>
       </c>
@@ -9447,25 +9313,24 @@
       <c r="D9" s="69">
         <v>3.1691414151519499</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9" s="69">
         <v>2.3351453172462699</v>
       </c>
-      <c r="F9" s="147">
+      <c r="F9" s="69">
         <v>6.7455109879491504</v>
       </c>
-      <c r="G9" s="141">
+      <c r="G9" s="69">
         <v>3.9365417515744054</v>
       </c>
-      <c r="H9" s="133">
-        <f>F10</f>
-        <v>6.8433019524305001</v>
-      </c>
-      <c r="I9" s="118"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="128"/>
+      <c r="M9" s="130"/>
+      <c r="O9" s="130"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="113"/>
       <c r="B10" s="68" t="s">
         <v>49</v>
       </c>
@@ -9475,26 +9340,34 @@
       <c r="D10" s="69">
         <v>3.3742243910984899</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="69">
         <v>2.2929517889830699</v>
       </c>
-      <c r="F10" s="147">
+      <c r="F10" s="69">
         <v>6.8433019524305001</v>
       </c>
-      <c r="G10" s="141">
-        <f>SQRT(D10^2+E10^2)</f>
+      <c r="G10" s="69">
+        <f t="shared" ref="G10:G16" si="1">SQRT(D10^2+E10^2)</f>
         <v>4.0795855363118241</v>
       </c>
-      <c r="H10" s="133">
-        <f>F11</f>
-        <v>5.0305464826320803</v>
-      </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="3">
+        <f>Tabela2[[#This Row],[Coluna7]]-$G$8</f>
+        <v>6.7483442081301526E-2</v>
+      </c>
+      <c r="J10" s="21">
+        <f>($G$8-Tabela2[[#This Row],[Coluna7]])/Tabela2[[#This Row],[Coluna7]]</f>
+        <v>-1.6541739713664731E-2</v>
+      </c>
+      <c r="K10" s="129">
+        <f>Tabela2[[#This Row],[Coluna6]]-$F$8</f>
+        <v>9.8817650201159957E-2</v>
+      </c>
+      <c r="M10" s="130"/>
+      <c r="O10" s="130"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="114"/>
       <c r="B11" s="73" t="s">
         <v>42</v>
       </c>
@@ -9504,58 +9377,75 @@
       <c r="D11" s="74">
         <v>2.9915918899835701</v>
       </c>
-      <c r="E11" s="139">
+      <c r="E11" s="74">
         <v>3.4775562365253299</v>
       </c>
-      <c r="F11" s="148">
+      <c r="F11" s="74">
         <v>5.0305464826320803</v>
       </c>
-      <c r="G11" s="142">
-        <f>SQRT(D11^2+E11^2)</f>
+      <c r="G11" s="74">
+        <f t="shared" si="1"/>
         <v>4.5872670964760367</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="117"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="136">
+      <c r="H11" s="74"/>
+      <c r="I11" s="6">
+        <f>Tabela2[[#This Row],[Coluna7]]-$G$8</f>
+        <v>0.57516500224551415</v>
+      </c>
+      <c r="J11" s="24">
+        <f>($G$8-Tabela2[[#This Row],[Coluna7]])/Tabela2[[#This Row],[Coluna7]]</f>
+        <v>-0.12538293283322416</v>
+      </c>
+      <c r="K11" s="129">
+        <f>Tabela2[[#This Row],[Coluna6]]-$F$8</f>
+        <v>-1.7139378195972599</v>
+      </c>
+      <c r="M11" s="130"/>
+      <c r="O11" s="130"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="112">
         <v>43507</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="63">
         <v>361</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="64">
         <v>0.54646894272239799</v>
       </c>
-      <c r="E12" s="137">
+      <c r="E12" s="64">
         <v>0.63586166727910798</v>
       </c>
-      <c r="F12" s="146">
+      <c r="F12" s="64">
         <v>3.08179787773734</v>
       </c>
-      <c r="G12" s="143">
-        <f>SQRT(D12^2+E12^2)</f>
+      <c r="G12" s="64">
+        <f t="shared" si="1"/>
         <v>0.8384201603462923</v>
       </c>
-      <c r="H12" s="69">
-        <f>F13</f>
-        <v>2.0461850746268699</v>
-      </c>
-      <c r="I12" s="98"/>
-      <c r="J12" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="4">
+        <f>G13-Tabela2[[#This Row],[Coluna7]]</f>
+        <v>19.501125236564576</v>
+      </c>
+      <c r="J12" s="121">
+        <f>(G13-G14)/G14</f>
+        <v>0.8467844052496758</v>
+      </c>
+      <c r="K12" s="127">
+        <f>G14-G13</f>
+        <v>-9.3260533297840258</v>
+      </c>
+      <c r="M12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="113"/>
       <c r="B13" s="68" t="s">
         <v>5</v>
       </c>
@@ -9565,34 +9455,31 @@
       <c r="D13" s="69">
         <v>20.012158307143899</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="69">
         <v>3.6346426017986402</v>
       </c>
-      <c r="F13" s="147">
+      <c r="F13" s="69">
         <v>2.0461850746268699</v>
       </c>
-      <c r="G13" s="144">
-        <f>SQRT(D13^2+E13^2)</f>
+      <c r="G13" s="69">
+        <f t="shared" si="1"/>
         <v>20.339545396910868</v>
       </c>
-      <c r="H13" s="69">
-        <f>F14</f>
-        <v>17.674904362939799</v>
-      </c>
-      <c r="I13" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="21">
-        <f>(G13-G16)/G13</f>
-        <v>0.85061319155552262</v>
-      </c>
-      <c r="K13" s="28">
-        <f>(H12-H15)/H12</f>
-        <v>-2.0060515692627061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="3">
+        <f>G13-G14</f>
+        <v>9.3260533297840258</v>
+      </c>
+      <c r="J13" s="125">
+        <f>(G14-G15)/G15</f>
+        <v>-9.3222381006487741E-3</v>
+      </c>
+      <c r="K13" s="128"/>
+      <c r="M13" s="130"/>
+      <c r="O13" s="130"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="113"/>
       <c r="B14" s="68" t="s">
         <v>8</v>
       </c>
@@ -9602,23 +9489,35 @@
       <c r="D14" s="69">
         <v>8.0226695059320896</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="69">
         <v>7.54544773431327</v>
       </c>
-      <c r="F14" s="147">
+      <c r="F14" s="69">
         <v>17.674904362939799</v>
       </c>
-      <c r="G14" s="144">
-        <f>SQRT(D14^2+E14^2)</f>
+      <c r="G14" s="69">
+        <f t="shared" si="1"/>
         <v>11.013492067126842</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
+      <c r="H14" s="69">
+        <f>Tabela2[[#This Row],[Coluna3]]-C16</f>
+        <v>-1797</v>
+      </c>
+      <c r="I14" s="2">
+        <f>Tabela2[[#This Row],[Coluna3]]/5389</f>
+        <v>0.29226201521618111</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="128"/>
+      <c r="L14">
+        <f>3624+5389+5936</f>
+        <v>14949</v>
+      </c>
+      <c r="M14" s="130"/>
+      <c r="O14" s="130"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="113"/>
       <c r="B15" s="68" t="s">
         <v>41</v>
       </c>
@@ -9628,34 +9527,25 @@
       <c r="D15" s="69">
         <v>8.1315119893046095</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15" s="69">
         <v>7.5808350980239902</v>
       </c>
-      <c r="F15" s="147">
+      <c r="F15" s="69">
         <v>17.660712793094199</v>
       </c>
-      <c r="G15" s="144">
-        <f>SQRT(D15^2+E15^2)</f>
+      <c r="G15" s="69">
+        <f t="shared" si="1"/>
         <v>11.117128586808601</v>
       </c>
-      <c r="H15" s="69">
-        <f>F16</f>
-        <v>6.1509378545840301</v>
-      </c>
-      <c r="I15" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="46">
-        <f>(G14-G16)/G14</f>
-        <v>0.72411477181471873</v>
-      </c>
-      <c r="K15" s="47">
-        <f>(H13-H15)/H13</f>
-        <v>0.6519959752947162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="128"/>
+      <c r="M15" s="130"/>
+      <c r="O15" s="130"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="113"/>
       <c r="B16" s="68" t="s">
         <v>48</v>
       </c>
@@ -9665,23 +9555,58 @@
       <c r="D16" s="69">
         <v>2.1846528360502999</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="69">
         <v>2.1117598756346401</v>
       </c>
-      <c r="F16" s="147">
+      <c r="F16" s="69">
         <v>6.1509378545840301</v>
       </c>
-      <c r="G16" s="144">
-        <f>SQRT(D16^2+E16^2)</f>
+      <c r="G16" s="69">
+        <f t="shared" si="1"/>
         <v>3.0384597720560738</v>
       </c>
       <c r="H16" s="69"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="125">
+        <f>(Tabela2[[#This Row],[Coluna6]]-F15)/F15</f>
+        <v>-0.65171633066875945</v>
+      </c>
+      <c r="K16" s="128"/>
+      <c r="L16">
+        <f>Tabela2[[#This Row],[Coluna3]]-C14</f>
+        <v>1797</v>
+      </c>
+      <c r="M16" s="130">
+        <f>(Tabela2[[#This Row],[Coluna3]]-C14)/Tabela2[[#This Row],[Coluna3]]</f>
+        <v>0.5329181494661922</v>
+      </c>
+      <c r="N16" s="131">
+        <f>Tabela2[[#This Row],[Coluna7]]-G13</f>
+        <v>-17.301085624854792</v>
+      </c>
+      <c r="O16" s="130">
+        <f>(Tabela2[[#This Row],[Coluna7]]-G13)/G13</f>
+        <v>-0.85061319155552262</v>
+      </c>
+      <c r="P16">
+        <f>(F14-Tabela2[[#This Row],[Coluna6]])/F14</f>
+        <v>0.6519959752947162</v>
+      </c>
+      <c r="Q16">
+        <f>(G14-Tabela2[[#This Row],[Coluna7]])/G14</f>
+        <v>0.72411477181471873</v>
+      </c>
+      <c r="R16" s="131">
+        <f>F14-Tabela2[[#This Row],[Coluna6]]</f>
+        <v>11.52396650835577</v>
+      </c>
+      <c r="S16" s="131">
+        <f>G14-Tabela2[[#This Row],[Coluna7]]</f>
+        <v>7.9750322950707684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="113"/>
       <c r="B17" s="68" t="s">
         <v>51</v>
       </c>
@@ -9691,25 +9616,28 @@
       <c r="D17" s="69">
         <v>2.1381807040121101</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="69">
         <v>2.0491882503524499</v>
       </c>
-      <c r="F17" s="147">
+      <c r="F17" s="69">
         <v>6.0368888078580802</v>
       </c>
-      <c r="G17" s="144">
+      <c r="G17" s="69">
         <v>2.9615855902526702</v>
       </c>
-      <c r="H17" s="69">
-        <f>F18</f>
-        <v>6.3735739461565499</v>
-      </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="123"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="128"/>
+      <c r="L17">
+        <f>C23+C15+C7</f>
+        <v>5006</v>
+      </c>
+      <c r="M17" s="130"/>
+      <c r="O17" s="130"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="113"/>
       <c r="B18" s="68" t="s">
         <v>49</v>
       </c>
@@ -9719,52 +9647,75 @@
       <c r="D18" s="69">
         <v>2.42536899469795</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="69">
         <v>2.2163018125612601</v>
       </c>
-      <c r="F18" s="147">
+      <c r="F18" s="69">
         <v>6.3735739461565499</v>
       </c>
-      <c r="G18" s="144">
-        <f>SQRT(D18^2+E18^2)</f>
+      <c r="G18" s="69">
+        <f t="shared" ref="G18:G24" si="2">SQRT(D18^2+E18^2)</f>
         <v>3.2854845129454606</v>
       </c>
-      <c r="H18" s="69">
-        <f>F19</f>
+      <c r="H18" s="69"/>
+      <c r="I18" s="3">
+        <f>Tabela2[[#This Row],[Coluna7]]-$G$16</f>
+        <v>0.24702474088938686</v>
+      </c>
+      <c r="J18" s="21">
+        <f>($G$16-Tabela2[[#This Row],[Coluna7]])/Tabela2[[#This Row],[Coluna7]]</f>
+        <v>-7.5186700748720747E-2</v>
+      </c>
+      <c r="K18" s="129">
+        <f>Tabela2[[#This Row],[Coluna6]]-$F$16</f>
+        <v>0.22263609157251985</v>
+      </c>
+      <c r="L18">
+        <f>C24+C16+C8</f>
+        <v>9348</v>
+      </c>
+      <c r="M18" s="130"/>
+      <c r="O18" s="130"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="114"/>
+      <c r="B19" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="73">
+        <v>3356</v>
+      </c>
+      <c r="D19" s="74">
+        <v>3.0541243235993201</v>
+      </c>
+      <c r="E19" s="74">
+        <v>2.3267158276386999</v>
+      </c>
+      <c r="F19" s="74">
         <v>9.17092643768191</v>
       </c>
-      <c r="I18" s="102"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="130">
-        <v>3356</v>
-      </c>
-      <c r="D19" s="131">
-        <v>3.0541243235993201</v>
-      </c>
-      <c r="E19" s="132">
-        <v>2.3267158276386999</v>
-      </c>
-      <c r="F19" s="148">
-        <v>9.17092643768191</v>
-      </c>
-      <c r="G19" s="145">
-        <f>SQRT(D19^2+E19^2)</f>
+      <c r="G19" s="74">
+        <f t="shared" si="2"/>
         <v>3.8394377096894599</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="117"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="90">
+      <c r="H19" s="74"/>
+      <c r="I19" s="6">
+        <f>Tabela2[[#This Row],[Coluna7]]-$G$16</f>
+        <v>0.80097793763338609</v>
+      </c>
+      <c r="J19" s="24">
+        <f>($G$16-Tabela2[[#This Row],[Coluna7]])/Tabela2[[#This Row],[Coluna7]]</f>
+        <v>-0.2086185525583564</v>
+      </c>
+      <c r="K19" s="129">
+        <f>Tabela2[[#This Row],[Coluna6]]-$F$16</f>
+        <v>3.0199885830978799</v>
+      </c>
+      <c r="M19" s="130"/>
+      <c r="O19" s="130"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="112">
         <v>43508</v>
       </c>
       <c r="B20" s="63" t="s">
@@ -9776,31 +9727,37 @@
       <c r="D20" s="64">
         <v>1.0181735125209499</v>
       </c>
-      <c r="E20" s="138">
+      <c r="E20" s="64">
         <v>0.67286389883522302</v>
       </c>
-      <c r="F20" s="146">
+      <c r="F20" s="64">
         <v>3.6980847035180502</v>
       </c>
-      <c r="G20" s="140">
-        <f>SQRT(D20^2+E20^2)</f>
+      <c r="G20" s="64">
+        <f t="shared" si="2"/>
         <v>1.2204192427010425</v>
       </c>
-      <c r="H20" s="133">
-        <f>F21</f>
-        <v>3.64350275922162</v>
-      </c>
-      <c r="I20" s="98"/>
-      <c r="J20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>16</v>
+      <c r="H20" s="64"/>
+      <c r="I20" s="10">
+        <f>G21-G23</f>
+        <v>-4.0599223548063428</v>
+      </c>
+      <c r="J20" s="121">
+        <f>(G21-G22)/G22</f>
+        <v>-0.32536993664715047</v>
+      </c>
+      <c r="K20" s="127">
+        <f>G22-G21</f>
+        <v>3.9460409913181209</v>
       </c>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+      <c r="M20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="113"/>
       <c r="B21" s="68" t="s">
         <v>5</v>
       </c>
@@ -9810,38 +9767,29 @@
       <c r="D21" s="69">
         <v>5.2575891833484203</v>
       </c>
-      <c r="E21" s="125">
+      <c r="E21" s="69">
         <v>6.2689644941091096</v>
       </c>
-      <c r="F21" s="147">
+      <c r="F21" s="69">
         <v>3.64350275922162</v>
       </c>
-      <c r="G21" s="141">
-        <f>SQRT(D21^2+E21^2)</f>
+      <c r="G21" s="69">
+        <f t="shared" si="2"/>
         <v>8.1818188594751344</v>
       </c>
-      <c r="H21" s="133">
-        <f>F22</f>
-        <v>20.177192762062901</v>
-      </c>
-      <c r="I21" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="21">
-        <f>(G21-G24)/G21</f>
-        <v>0.32113994315580374</v>
-      </c>
-      <c r="K21" s="28">
-        <f>(H20-H23)/H20</f>
-        <v>-1.1940510382698943</v>
-      </c>
+      <c r="H21" s="69"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="125">
+        <f>(G22-G23)/G23</f>
+        <v>-9.3027095978279167E-3</v>
+      </c>
+      <c r="K21" s="128"/>
       <c r="L21" s="1"/>
-      <c r="R21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
+      <c r="M21" s="130"/>
+      <c r="O21" s="130"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="113"/>
       <c r="B22" s="68" t="s">
         <v>8</v>
       </c>
@@ -9851,24 +9799,29 @@
       <c r="D22" s="69">
         <v>8.2955347477795804</v>
       </c>
-      <c r="E22" s="125">
+      <c r="E22" s="69">
         <v>8.8469818474361404</v>
       </c>
-      <c r="F22" s="147">
+      <c r="F22" s="69">
         <v>20.177192762062901</v>
       </c>
-      <c r="G22" s="141">
-        <f>SQRT(D22^2+E22^2)</f>
+      <c r="G22" s="69">
+        <f t="shared" si="2"/>
         <v>12.127859850793255</v>
       </c>
-      <c r="H22" s="133"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="2">
+        <f>Tabela2[[#This Row],[Coluna3]]/5936</f>
+        <v>0.34585579514824799</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="128"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
+      <c r="M22" s="130"/>
+      <c r="O22" s="130"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="113"/>
       <c r="B23" s="68" t="s">
         <v>41</v>
       </c>
@@ -9878,35 +9831,26 @@
       <c r="D23" s="69">
         <v>8.4320914976564403</v>
       </c>
-      <c r="E23" s="125">
+      <c r="E23" s="69">
         <v>8.87468652587728</v>
       </c>
-      <c r="F23" s="147">
+      <c r="F23" s="69">
         <v>20.405572587687299</v>
       </c>
-      <c r="G23" s="141">
-        <f>SQRT(D23^2+E23^2)</f>
+      <c r="G23" s="69">
+        <f t="shared" si="2"/>
         <v>12.241741214281477</v>
       </c>
-      <c r="H23" s="133">
-        <f>F24</f>
-        <v>7.9940310118094198</v>
-      </c>
-      <c r="I23" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="46">
-        <f>(G22-G24)/G22</f>
-        <v>0.54202059684348081</v>
-      </c>
-      <c r="K23" s="47">
-        <f>(H21-H23)/H21</f>
-        <v>0.60380856216828283</v>
-      </c>
+      <c r="H23" s="69"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="128"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
+      <c r="M23" s="130"/>
+      <c r="O23" s="130"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="113"/>
       <c r="B24" s="68" t="s">
         <v>48</v>
       </c>
@@ -9916,24 +9860,58 @@
       <c r="D24" s="69">
         <v>3.9141984344274401</v>
       </c>
-      <c r="E24" s="125">
+      <c r="E24" s="69">
         <v>3.94073728763051</v>
       </c>
-      <c r="F24" s="147">
+      <c r="F24" s="69">
         <v>7.9940310118094198</v>
       </c>
-      <c r="G24" s="141">
-        <f>SQRT(D24^2+E24^2)</f>
+      <c r="G24" s="69">
+        <f t="shared" si="2"/>
         <v>5.5543100160322068</v>
       </c>
-      <c r="H24" s="133"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="125">
+        <f>(Tabela2[[#This Row],[Coluna6]]-F23)/F23</f>
+        <v>-0.60824274950103541</v>
+      </c>
+      <c r="K24" s="128"/>
+      <c r="L24">
+        <f>Tabela2[[#This Row],[Coluna3]]-C22</f>
+        <v>421</v>
+      </c>
+      <c r="M24" s="130">
+        <f>(Tabela2[[#This Row],[Coluna3]]-C22)/Tabela2[[#This Row],[Coluna3]]</f>
+        <v>0.17016976556184316</v>
+      </c>
+      <c r="N24" s="131">
+        <f>Tabela2[[#This Row],[Coluna7]]-G21</f>
+        <v>-2.6275088434429277</v>
+      </c>
+      <c r="O24" s="130">
+        <f>(Tabela2[[#This Row],[Coluna7]]-G21)/G21</f>
+        <v>-0.32113994315580374</v>
+      </c>
+      <c r="P24">
+        <f>(F22-Tabela2[[#This Row],[Coluna6]])/F22</f>
+        <v>0.60380856216828283</v>
+      </c>
+      <c r="Q24">
+        <f>(G22-Tabela2[[#This Row],[Coluna7]])/G22</f>
+        <v>0.54202059684348081</v>
+      </c>
+      <c r="R24" s="131">
+        <f>F22-Tabela2[[#This Row],[Coluna6]]</f>
+        <v>12.183161750253483</v>
+      </c>
+      <c r="S24" s="131">
+        <f>G22-Tabela2[[#This Row],[Coluna7]]</f>
+        <v>6.5735498347610486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="113"/>
       <c r="B25" s="68" t="s">
         <v>51</v>
       </c>
@@ -9943,27 +9921,27 @@
       <c r="D25" s="69">
         <v>3.4736619854876398</v>
       </c>
-      <c r="E25" s="125">
+      <c r="E25" s="69">
         <v>3.7861995141154301</v>
       </c>
-      <c r="F25" s="147">
+      <c r="F25" s="69">
         <v>7.6625698270561404</v>
       </c>
-      <c r="G25" s="141">
-        <f t="shared" ref="G25" si="1">SQRT(D25^2+E25^2)</f>
+      <c r="G25" s="69">
+        <f t="shared" ref="G25" si="3">SQRT(D25^2+E25^2)</f>
         <v>5.1382520714840227</v>
       </c>
-      <c r="H25" s="133">
-        <f>F26</f>
-        <v>8.1132574796105796</v>
-      </c>
-      <c r="I25" s="118"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="128"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91"/>
+      <c r="M25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="113"/>
       <c r="B26" s="68" t="s">
         <v>49</v>
       </c>
@@ -9973,27 +9951,36 @@
       <c r="D26" s="69">
         <v>3.7813396910379402</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26" s="69">
         <v>4.0070097691034796</v>
       </c>
-      <c r="F26" s="147">
+      <c r="F26" s="69">
         <v>8.1132574796105796</v>
       </c>
-      <c r="G26" s="141">
+      <c r="G26" s="69">
         <f>SQRT(D26^2+E26^2)</f>
         <v>5.509506071210887</v>
       </c>
-      <c r="H26" s="133">
-        <f>F27</f>
-        <v>13.3025866410925</v>
-      </c>
-      <c r="I26" s="102"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="3">
+        <f>Tabela2[[#This Row],[Coluna7]]-$G$24</f>
+        <v>-4.4803944821319774E-2</v>
+      </c>
+      <c r="J26" s="21">
+        <f>($G$24-Tabela2[[#This Row],[Coluna7]])/Tabela2[[#This Row],[Coluna7]]</f>
+        <v>8.13211642608694E-3</v>
+      </c>
+      <c r="K26" s="129">
+        <f>Tabela2[[#This Row],[Coluna6]]-$F$24</f>
+        <v>0.11922646780115986</v>
+      </c>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="92"/>
+      <c r="M26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="114"/>
       <c r="B27" s="73" t="s">
         <v>42</v>
       </c>
@@ -10003,25 +9990,42 @@
       <c r="D27" s="74">
         <v>3.3926924928281199</v>
       </c>
-      <c r="E27" s="139">
+      <c r="E27" s="74">
         <v>4.3731463111218201</v>
       </c>
-      <c r="F27" s="148">
+      <c r="F27" s="74">
         <v>13.3025866410925</v>
       </c>
-      <c r="G27" s="142">
+      <c r="G27" s="74">
         <f>SQRT(D27^2+E27^2)</f>
         <v>5.5348686533079237</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="5"/>
+      <c r="I27" s="6">
+        <f>Tabela2[[#This Row],[Coluna7]]-$G$24</f>
+        <v>-1.9441362724283096E-2</v>
+      </c>
+      <c r="J27" s="24">
+        <f>($G$24-Tabela2[[#This Row],[Coluna7]])/Tabela2[[#This Row],[Coluna7]]</f>
+        <v>3.5125246762023762E-3</v>
+      </c>
+      <c r="K27" s="129">
+        <f>Tabela2[[#This Row],[Coluna6]]-$F$24</f>
+        <v>5.30855562928308</v>
+      </c>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>34</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="33" t="s">
         <v>23</v>
@@ -10039,7 +10043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>5</v>
       </c>
@@ -10047,14 +10051,14 @@
         <f>AVERAGE(G21,G13,G5)</f>
         <v>12.252099229756817</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="29" t="e">
         <f>AVERAGE(H20,H12,H4)</f>
-        <v>3.2280429722170165</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="36"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
@@ -10062,20 +10066,20 @@
         <f>AVERAGE(G22,G14,G6)</f>
         <v>10.631548042928632</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="29" t="e">
         <f>AVERAGE(H21,H13,H5)</f>
-        <v>17.279296270097031</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D31" s="31">
         <f>-(B31-$B$30)/$B$30</f>
         <v>0.1322672267371402</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="37" t="e">
         <f>-(C31-$C$30)/C31</f>
-        <v>-0.8131843495383918</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>19</v>
       </c>
@@ -10083,17 +10087,17 @@
         <f>AVERAGE(G24,G16,G8)</f>
         <v>4.2016239607729338</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="29" t="e">
         <f>AVERAGE(H23,H15,H7)</f>
-        <v>6.9631510562075967</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D32" s="31">
-        <f t="shared" ref="D32:D34" si="2">-(B32-$B$30)/$B$30</f>
+        <f t="shared" ref="D32:D34" si="4">-(B32-$B$30)/$B$30</f>
         <v>0.65706905551593975</v>
       </c>
-      <c r="E32" s="37">
-        <f t="shared" ref="E32:E34" si="3">-(C32-$C$30)/C32</f>
-        <v>-0.53641060689912212</v>
+      <c r="E32" s="37" t="e">
+        <f t="shared" ref="E32:E34" si="5">-(C32-$C$30)/C32</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -10104,17 +10108,17 @@
         <f>AVERAGE(G26,G18,G10)</f>
         <v>4.2915253734893914</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="29" t="e">
         <f>AVERAGE(H25,H17,H9)</f>
-        <v>7.1100444593992096</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D33" s="31">
         <f>-(B33-$B$30)/$B$30</f>
         <v>0.64973142210058887</v>
       </c>
-      <c r="E33" s="37">
-        <f t="shared" si="3"/>
-        <v>-0.5459883562402108</v>
+      <c r="E33" s="37" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10125,17 +10129,17 @@
         <f>AVERAGE(G27,G19,G11)</f>
         <v>4.6538578198244736</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="39" t="e">
         <f>AVERAGE(H26,H18,H10)</f>
-        <v>9.1680198538021624</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D34" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.62015833102938034</v>
       </c>
-      <c r="E34" s="41">
-        <f t="shared" si="3"/>
-        <v>-0.64790183445356719</v>
+      <c r="E34" s="41" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -10162,10 +10166,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10222,7 +10228,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="105">
+      <c r="A2" s="115">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -10257,7 +10263,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -10292,7 +10298,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="42" t="s">
         <v>19</v>
       </c>
@@ -10321,7 +10327,7 @@
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
@@ -10356,7 +10362,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="105">
+      <c r="A6" s="115">
         <v>43507</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -10391,7 +10397,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -10428,7 +10434,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="42" t="s">
         <v>19</v>
       </c>
@@ -10457,7 +10463,7 @@
       <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
@@ -10494,7 +10500,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="105">
+      <c r="A10" s="115">
         <v>43508</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -10530,7 +10536,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -10569,7 +10575,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="42" t="s">
         <v>19</v>
       </c>
@@ -10599,7 +10605,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -10727,7 +10733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3685D6B-FB0F-4B87-A0EA-203817B84B8B}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
@@ -10775,7 +10781,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="105">
+      <c r="A2" s="115">
         <v>43480</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -10810,7 +10816,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
@@ -10847,7 +10853,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="105">
+      <c r="A4" s="115">
         <v>43507</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -10882,7 +10888,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="68" t="s">
         <v>5</v>
       </c>
@@ -10919,7 +10925,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="105">
+      <c r="A6" s="115">
         <v>43508</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -10955,7 +10961,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="73" t="s">
         <v>5</v>
       </c>
@@ -11113,7 +11119,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="105">
+      <c r="A2" s="115">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -11148,7 +11154,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -11185,7 +11191,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="105">
+      <c r="A4" s="115">
         <v>43507</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -11220,7 +11226,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -11257,7 +11263,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="105">
+      <c r="A6" s="115">
         <v>43508</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -11293,7 +11299,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -11520,16 +11526,16 @@
       <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="101" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111">
+      <c r="A2" s="102">
         <v>43480</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -11555,7 +11561,7 @@
         <f t="shared" ref="H2:H13" si="1">F2</f>
         <v>13.985791685288399</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="95"/>
       <c r="J2" s="26" t="s">
         <v>15</v>
       </c>
@@ -11564,10 +11570,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113">
+      <c r="A3" s="104">
         <v>43507</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="91" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="86">
@@ -11590,15 +11596,15 @@
         <f t="shared" ref="H3:H4" si="3">F3</f>
         <v>13.964606848052201</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="113">
+      <c r="A4" s="104">
         <v>43508</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="91" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="86">
@@ -11621,12 +11627,12 @@
         <f t="shared" si="3"/>
         <v>6.7444843022293401</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="73" t="s">
         <v>51</v>
       </c>
@@ -11650,7 +11656,7 @@
         <f t="shared" si="1"/>
         <v>6.7455109879491504</v>
       </c>
-      <c r="I5" s="99"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="21">
         <f>-(G5-G2)/G2</f>
         <v>0.55027872293720237</v>
@@ -11661,7 +11667,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="113">
+      <c r="A6" s="104">
         <v>43507</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -11687,7 +11693,7 @@
         <f t="shared" si="1"/>
         <v>17.674904362939799</v>
       </c>
-      <c r="I6" s="98"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="26" t="s">
         <v>15</v>
       </c>
@@ -11696,7 +11702,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="68" t="s">
         <v>41</v>
       </c>
@@ -11720,12 +11726,12 @@
         <f t="shared" ref="H7:H8" si="5">F7</f>
         <v>17.660712793094199</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="100"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="68" t="s">
         <v>50</v>
       </c>
@@ -11749,12 +11755,12 @@
         <f t="shared" si="5"/>
         <v>6.1509378545840301</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="100"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="73" t="s">
         <v>51</v>
       </c>
@@ -11778,7 +11784,7 @@
         <f t="shared" si="1"/>
         <v>6.0368888078580802</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="99" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="24">
@@ -11791,7 +11797,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="113">
+      <c r="A10" s="104">
         <v>43508</v>
       </c>
       <c r="B10" s="63" t="s">
@@ -11817,7 +11823,7 @@
         <f t="shared" si="1"/>
         <v>20.177192762062901</v>
       </c>
-      <c r="I10" s="98"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="26" t="s">
         <v>15</v>
       </c>
@@ -11827,7 +11833,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="68" t="s">
         <v>41</v>
       </c>
@@ -11851,13 +11857,13 @@
         <f t="shared" ref="H11:H12" si="7">F11</f>
         <v>20.405572587687299</v>
       </c>
-      <c r="I11" s="99"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="100"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="68" t="s">
         <v>50</v>
       </c>
@@ -11881,13 +11887,13 @@
         <f t="shared" si="7"/>
         <v>7.9940310118094198</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="100"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="73" t="s">
         <v>51</v>
       </c>
@@ -11911,7 +11917,7 @@
         <f t="shared" si="1"/>
         <v>7.6625698270561404</v>
       </c>
-      <c r="I13" s="102"/>
+      <c r="I13" s="99"/>
       <c r="J13" s="24">
         <f>-(G13-G10)/G10</f>
         <v>0.57632656258408677</v>
@@ -12062,7 +12068,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="A2" s="118">
         <v>43480</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -12097,7 +12103,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="68" t="s">
         <v>8</v>
       </c>
@@ -12134,7 +12140,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="68" t="s">
         <v>48</v>
       </c>
@@ -12171,7 +12177,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="68" t="s">
         <v>49</v>
       </c>
@@ -12200,7 +12206,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="73" t="s">
         <v>42</v>
       </c>
@@ -12229,7 +12235,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="118">
         <v>43507</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -12264,7 +12270,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="68" t="s">
         <v>8</v>
       </c>
@@ -12301,7 +12307,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="68" t="s">
         <v>48</v>
       </c>
@@ -12338,7 +12344,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="68" t="s">
         <v>49</v>
       </c>
@@ -12367,7 +12373,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="73" t="s">
         <v>42</v>
       </c>
@@ -12396,7 +12402,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="118">
         <v>43508</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -12432,7 +12438,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="68" t="s">
         <v>8</v>
       </c>
@@ -12473,7 +12479,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="68" t="s">
         <v>48</v>
       </c>
@@ -12511,7 +12517,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="68" t="s">
         <v>49</v>
       </c>
@@ -12541,7 +12547,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="73" t="s">
         <v>42</v>
       </c>
@@ -12765,7 +12771,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="A2" s="118">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -12800,7 +12806,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -12837,7 +12843,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -12874,7 +12880,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -12903,7 +12909,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -12932,7 +12938,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="118">
         <v>43507</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -12967,7 +12973,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -13004,7 +13010,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -13041,7 +13047,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -13070,7 +13076,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -13099,7 +13105,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="118">
         <v>43508</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13135,7 +13141,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -13176,7 +13182,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -13214,7 +13220,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -13244,7 +13250,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
@@ -13453,7 +13459,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="A2" s="118">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -13488,7 +13494,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -13525,7 +13531,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -13562,7 +13568,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -13591,7 +13597,7 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -13620,7 +13626,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="118">
         <v>43507</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -13655,7 +13661,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -13692,7 +13698,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -13729,7 +13735,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -13758,7 +13764,7 @@
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -13787,7 +13793,7 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="118">
         <v>43508</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13823,7 +13829,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -13864,7 +13870,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -13902,7 +13908,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -13932,7 +13938,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
@@ -14108,80 +14114,80 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="108">
+      <c r="H31" s="118">
         <v>43480</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="93">
+      <c r="J31" s="90">
         <v>0.51279483593527952</v>
       </c>
-      <c r="K31" s="93">
+      <c r="K31" s="90">
         <v>-0.74622278131140984</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="109"/>
+      <c r="H32" s="119"/>
       <c r="I32" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="93">
+      <c r="J32" s="90">
         <v>0.5416465031008395</v>
       </c>
-      <c r="K32" s="93">
+      <c r="K32" s="90">
         <v>0.51776170745315497</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="108">
+      <c r="H33" s="118">
         <v>43507</v>
       </c>
       <c r="I33" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="93">
+      <c r="J33" s="90">
         <v>0.85061319155552262</v>
       </c>
-      <c r="K33" s="93">
+      <c r="K33" s="90">
         <v>-0.74848265131706859</v>
       </c>
     </row>
     <row r="34" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="109"/>
+      <c r="H34" s="119"/>
       <c r="I34" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="93">
+      <c r="J34" s="90">
         <v>0.72411477181471873</v>
       </c>
-      <c r="K34" s="93">
+      <c r="K34" s="90">
         <v>0.6519959752947162</v>
       </c>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="108">
+      <c r="H35" s="118">
         <v>43508</v>
       </c>
       <c r="I35" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="93">
+      <c r="J35" s="90">
         <v>0.32113994315580374</v>
       </c>
-      <c r="K35" s="93">
+      <c r="K35" s="90">
         <v>-0.94544864189693167</v>
       </c>
     </row>
     <row r="36" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="110"/>
+      <c r="H36" s="120"/>
       <c r="I36" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="93">
+      <c r="J36" s="90">
         <v>0.54202059684348081</v>
       </c>
-      <c r="K36" s="93">
+      <c r="K36" s="90">
         <v>0.60380856216828283</v>
       </c>
     </row>
@@ -14433,7 +14439,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="105">
+      <c r="A2" s="115">
         <v>43480</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -14468,7 +14474,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
@@ -14505,7 +14511,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
@@ -14534,7 +14540,7 @@
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="105">
+      <c r="A5" s="115">
         <v>43507</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -14569,7 +14575,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -14606,7 +14612,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
@@ -14635,7 +14641,7 @@
       <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="105">
+      <c r="A8" s="115">
         <v>43508</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -14671,7 +14677,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -14712,7 +14718,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
